--- a/docs/SWIM_properties.xlsx
+++ b/docs/SWIM_properties.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malinovskiyy\Desktop\SWIM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UG" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$1:$C$464</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="1175">
   <si>
     <t>root.dir</t>
   </si>
@@ -3495,6 +3490,66 @@
   </si>
   <si>
     <t>SDT TAZ Class pointer</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>SETUP</t>
+  </si>
+  <si>
+    <t>VIZ</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>TIMEPERIOD</t>
+  </si>
+  <si>
+    <t>DUPLICATES?</t>
+  </si>
+  <si>
+    <t>CENSUS</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>NED</t>
+  </si>
+  <si>
+    <t>ALD</t>
+  </si>
+  <si>
+    <t>PT?</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>CHECK/RENAME?</t>
+  </si>
+  <si>
+    <t>RENAME?</t>
+  </si>
+  <si>
+    <t>CHECK?</t>
+  </si>
+  <si>
+    <t>AA?</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>TR</t>
   </si>
 </sst>
 </file>
@@ -3525,12 +3580,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -3584,7 +3645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3613,23 +3674,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3640,6 +3692,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3914,7 +3984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3924,7 +3994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A164" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5421,7 +5491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K464"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection sqref="A1:A464"/>
     </sheetView>
   </sheetViews>
@@ -11053,7 +11123,7 @@
         <v>9067</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -11068,7 +11138,7 @@
         <v>@ROOT.DIR@/@SCENARIO.NAME@/inputs/parameters/AgForestFloorspace.csv</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -11083,7 +11153,7 @@
         <v>@ROOT.DIR@/@SCENARIO.NAME@/inputs/parameters/worldMarketFields.csv</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -11098,7 +11168,7 @@
         <v>@ROOT.DIR@/@SCENARIO.NAME@/outputs/t@CURRENT.INTERVAL@/AllZones.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -11114,7 +11184,7 @@
         <v>@ROOT.DIR@/@SCENARIO.NAME@/model/code/viz/build_Viz_DB.R</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -17697,5074 +17767,6362 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C465"/>
+  <dimension ref="A1:E465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="D433" sqref="D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="43" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>1052</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>1053</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="D1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="D2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>984</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1028</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="D3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="D4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>1990</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="D5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="D6" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>985</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="D7" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>986</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>1030</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="D8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>987</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="D9" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="D10" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="D11" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D12" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>988</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="D13" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="D14" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="D15" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="D16" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="D17" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="D18" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="D19" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="D20" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C21" s="17" t="b">
+      <c r="C21" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="D21" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="D22" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <v>15000</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="D23" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="15">
         <v>15000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="D24" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="D25" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="15">
         <v>7067</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="D26" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="15">
         <v>8067</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="D27" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="15">
         <v>9067</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="D28" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>402</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="D29" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>404</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="D30" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>406</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="D31" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="D32" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="D33" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="D34" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="D35" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="15" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="D36" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="15" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="D37" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="D38" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="15" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="D39" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="15" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="D40" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="D41" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="D42" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="D43" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="15" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="D44" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>428</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>1119</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="D45" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="15" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="D46" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="D47" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>1118</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="D48" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="D49" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="D50" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="D51" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="15" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="D52" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="15" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="D53" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>439</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>1117</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="15" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="D54" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="15" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+    <row r="56" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>989</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>1120</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="15" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="E56" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>990</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>991</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="15" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>992</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>1058</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="15" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>993</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>994</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="15" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="E61" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="15">
         <v>6006</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="E63" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="15">
         <v>5012</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="E64" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>995</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>461</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="15">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="D66" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>462</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="15">
         <v>859</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="D67" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
         <v>463</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="15">
         <v>900</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="D68" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>464</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="15">
         <v>1559</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="D69" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
         <v>465</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="15">
         <v>900</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="D70" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
         <v>466</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="15">
         <v>1559</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="D71" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
         <v>467</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="15">
         <v>1600</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="D72" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
         <v>468</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>1046</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="15">
         <v>1759</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="D73" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
         <v>469</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="15">
         <v>1800</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="D74" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>470</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="15">
         <v>659</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="D75" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>471</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="15">
         <v>1800</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="D76" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>472</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="15">
         <v>659</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="D77" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>996</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>1093</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="15" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
         <v>997</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="15" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="D79" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
         <v>998</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="D80" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
         <v>999</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="15" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="D81" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
         <v>1000</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="15" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="D82" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
         <v>1001</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="15" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="D83" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>1002</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="15" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="D84" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
         <v>1003</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+      <c r="D85" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
         <v>1004</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="15" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="D86" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>1005</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="15" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+      <c r="D87" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
         <v>1006</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="15" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="D88" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>1007</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="15" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="D89" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
         <v>1008</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="15" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+      <c r="D90" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
         <v>1009</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="15" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+      <c r="D91" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
         <v>1010</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="15" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+      <c r="D92" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
         <v>503</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>1038</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+      <c r="D93" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
         <v>504</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="15">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="D94" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
         <v>505</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>1121</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="15">
         <v>25</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+      <c r="D95" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="15">
         <v>8.6699999999999999E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+      <c r="D96" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
         <v>506</v>
       </c>
       <c r="B97" s="11"/>
-      <c r="C97" s="17">
+      <c r="C97" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+      <c r="D97" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
         <v>507</v>
       </c>
       <c r="B98" s="11"/>
-      <c r="C98" s="17" t="b">
+      <c r="C98" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
+      <c r="D98" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+      <c r="D99" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="15" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+      <c r="D100" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="15" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+      <c r="D101" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="15" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
+      <c r="D102" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="15" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
+      <c r="E103" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="15" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="D104" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="15" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
+      <c r="D105" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
         <v>514</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="15" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+      <c r="D106" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
         <v>516</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="15" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="D107" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
         <v>518</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="15" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+      <c r="D108" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
         <v>520</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="15" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
+      <c r="D109" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
         <v>522</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="15" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="D110" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
         <v>524</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="15" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
+      <c r="D111" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
         <v>526</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="15" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+      <c r="D112" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
         <v>528</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="15" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+      <c r="D113" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
         <v>530</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="15" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
+      <c r="D114" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
         <v>532</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="15" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
+      <c r="D115" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="15" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+      <c r="D116" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="15">
         <v>2009</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
+      <c r="D117" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+      <c r="D118" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="15" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="D119" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C120" s="17" t="b">
+      <c r="C120" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+      <c r="D120" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="15" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+      <c r="D121" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="15" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="D122" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="15" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="D123" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="15" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="D124" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>1060</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="15" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="D125" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
         <v>541</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="15" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="D126" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
         <v>1011</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="15" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="D127" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
         <v>1012</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="15" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="D128" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
         <v>547</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="15" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+      <c r="D129" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
         <v>1013</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="15" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="D130" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
         <v>550</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="15" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
+      <c r="D131" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
         <v>552</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="15" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="D132" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
         <v>554</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="15" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="D133" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
         <v>556</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="15" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
+      <c r="D134" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
         <v>558</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="15" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="D135" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
         <v>560</v>
       </c>
       <c r="B136" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="15" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+      <c r="D136" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
         <v>562</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="15" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+      <c r="D137" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
         <v>564</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="15" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+      <c r="D138" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
         <v>566</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="15" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
+      <c r="D139" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
         <v>568</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="15" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
+      <c r="D140" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
         <v>570</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="15" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
+      <c r="D141" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
         <v>572</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="15" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
+      <c r="D142" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
         <v>574</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="15" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
+      <c r="D143" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
         <v>576</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="15" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
+      <c r="D144" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
         <v>577</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="15" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="s">
+      <c r="D145" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
         <v>579</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="15" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
+      <c r="D146" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
         <v>581</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="15" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
+      <c r="D147" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
         <v>583</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="C148" s="17" t="b">
+      <c r="C148" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+      <c r="D148" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
         <v>253</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C149" s="17">
+      <c r="C149" s="15">
         <v>1970</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
+      <c r="D149" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
         <v>584</v>
       </c>
       <c r="B150" s="11"/>
-      <c r="C150" s="17" t="b">
+      <c r="C150" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="s">
+      <c r="D150" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C151" s="17">
+      <c r="C151" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
+      <c r="D151" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C152" s="17" t="b">
+      <c r="C152" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
+      <c r="D152" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="15" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
+      <c r="D153" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="15" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
+      <c r="D154" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="15" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
+      <c r="D155" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
         <v>588</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>1122</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="15" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
+      <c r="D156" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="15" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="14" t="s">
+      <c r="D157" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
         <v>147</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="15" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
+      <c r="D158" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
         <v>149</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="15" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
+      <c r="D159" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="15" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="14" t="s">
+      <c r="D160" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="15" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="s">
+      <c r="D161" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
         <v>155</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="15" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="14" t="s">
+      <c r="D162" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="15" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="14" t="s">
+      <c r="D163" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="15" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="14" t="s">
+      <c r="D164" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
         <v>598</v>
       </c>
       <c r="B165" s="11"/>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="15" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="14" t="s">
+      <c r="D165" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
         <v>600</v>
       </c>
       <c r="B166" s="11"/>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="15" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="14" t="s">
+      <c r="D166" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
         <v>1014</v>
       </c>
       <c r="B167" s="11"/>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="15" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A168" s="14" t="s">
+      <c r="D167" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="15" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A169" s="14" t="s">
+      <c r="D168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="15" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="14" t="s">
+      <c r="D169" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="17">
+      <c r="C170" s="15">
         <v>8.0001500023000305E+39</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="14" t="s">
+      <c r="D170" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
         <v>606</v>
       </c>
       <c r="B171" s="11"/>
-      <c r="C171" s="17">
+      <c r="C171" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
+      <c r="D171" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
         <v>607</v>
       </c>
       <c r="B172" s="11"/>
-      <c r="C172" s="17" t="b">
+      <c r="C172" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="14" t="s">
+      <c r="D172" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="15" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="14" t="s">
+      <c r="D173" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="13" t="s">
         <v>609</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="15" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="14" t="s">
+      <c r="D174" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="13" t="s">
         <v>611</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="15" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="14" t="s">
+      <c r="D175" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
         <v>613</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="15" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="14" t="s">
+      <c r="D176" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
         <v>615</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C177" s="15" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="14" t="s">
+      <c r="D177" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
         <v>617</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="15" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="s">
+      <c r="D178" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
         <v>619</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="15" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="14" t="s">
+      <c r="D179" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
         <v>621</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="15" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="14" t="s">
+      <c r="D180" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
         <v>623</v>
       </c>
       <c r="B181" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="15" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="14" t="s">
+      <c r="D181" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="13" t="s">
         <v>625</v>
       </c>
       <c r="B182" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="15" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="14" t="s">
+      <c r="D182" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="13" t="s">
         <v>627</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="15" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="14" t="s">
+      <c r="D183" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="13" t="s">
         <v>629</v>
       </c>
       <c r="B184" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="15" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="14" t="s">
+      <c r="D184" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="13" t="s">
         <v>630</v>
       </c>
       <c r="B185" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="14" t="s">
+      <c r="D185" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
         <v>631</v>
       </c>
       <c r="B186" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="15" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="14" t="s">
+      <c r="D186" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="13" t="s">
         <v>633</v>
       </c>
       <c r="B187" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="15" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="14" t="s">
+      <c r="D187" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="13" t="s">
         <v>635</v>
       </c>
       <c r="B188" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="15" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="14" t="s">
+      <c r="D188" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
         <v>637</v>
       </c>
       <c r="B189" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="15" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="14" t="s">
+      <c r="D189" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
         <v>639</v>
       </c>
       <c r="B190" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="15" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="14" t="s">
+      <c r="D190" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="13" t="s">
         <v>641</v>
       </c>
       <c r="B191" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="15" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="14" t="s">
+      <c r="D191" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="13" t="s">
         <v>643</v>
       </c>
       <c r="B192" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="15" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="14" t="s">
+      <c r="D192" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
         <v>645</v>
       </c>
       <c r="B193" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="15" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="14" t="s">
+      <c r="D193" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
         <v>647</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="15" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="14" t="s">
+      <c r="D194" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="13" t="s">
         <v>649</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="15" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="14" t="s">
+      <c r="D195" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="13" t="s">
         <v>651</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="15" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="14" t="s">
+      <c r="D196" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="13" t="s">
         <v>653</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="15" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="14" t="s">
+      <c r="D197" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="13" t="s">
         <v>655</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="15" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="14" t="s">
+      <c r="D198" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="13" t="s">
         <v>657</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="15" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="14" t="s">
+      <c r="D199" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="13" t="s">
         <v>659</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>1070</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="15" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="14" t="s">
+      <c r="D200" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="13" t="s">
         <v>661</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="C201" s="17" t="b">
+      <c r="C201" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="14" t="s">
+      <c r="D201" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="15" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="14" t="s">
+      <c r="D202" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="13" t="s">
         <v>663</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="15" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="14" t="s">
+      <c r="D203" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="13" t="s">
         <v>664</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>1072</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="15" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="14" t="s">
+      <c r="D204" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="13" t="s">
         <v>666</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>1073</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="15" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="14" t="s">
+      <c r="D205" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="13" t="s">
         <v>668</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="15" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="14" t="s">
+      <c r="D206" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="13" t="s">
         <v>670</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="15" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="14" t="s">
+      <c r="D207" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="13" t="s">
         <v>672</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="15" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="14" t="s">
+      <c r="D208" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="13" t="s">
         <v>674</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="15" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="14" t="s">
+      <c r="D209" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="13" t="s">
         <v>675</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="15" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="14" t="s">
+      <c r="D210" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="13" t="s">
         <v>677</v>
       </c>
       <c r="B211" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="15" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="14" t="s">
+      <c r="D211" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="13" t="s">
         <v>679</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="15" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="14" t="s">
+      <c r="D212" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="13" t="s">
         <v>680</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="15" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="14" t="s">
+      <c r="D213" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="13" t="s">
         <v>681</v>
       </c>
       <c r="B214" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C214" s="15" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="14" t="s">
+      <c r="D214" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="B215" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="15" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="14" t="s">
+      <c r="E215" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="13" t="s">
         <v>684</v>
       </c>
       <c r="B216" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="C216" s="17" t="s">
+      <c r="C216" s="15" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="14" t="s">
+      <c r="D216" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="13" t="s">
         <v>686</v>
       </c>
       <c r="B217" s="11" t="s">
         <v>1084</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="C217" s="15" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="14" t="s">
+      <c r="D217" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="13" t="s">
         <v>687</v>
       </c>
       <c r="B218" s="11" t="s">
         <v>1085</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="15" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="14" t="s">
+      <c r="D218" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="13" t="s">
         <v>688</v>
       </c>
       <c r="B219" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C219" s="15" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="14" t="s">
+      <c r="D219" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="13" t="s">
         <v>690</v>
       </c>
       <c r="B220" s="11"/>
-      <c r="C220" s="17" t="b">
+      <c r="C220" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="14" t="s">
+      <c r="D220" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="13" t="s">
         <v>691</v>
       </c>
       <c r="B221" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C221" s="17" t="b">
+      <c r="C221" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="14" t="s">
+      <c r="D221" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="13" t="s">
         <v>692</v>
       </c>
       <c r="B222" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C222" s="17" t="b">
+      <c r="C222" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="14" t="s">
+      <c r="D222" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="13" t="s">
         <v>693</v>
       </c>
       <c r="B223" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C223" s="17" t="b">
+      <c r="C223" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="14" t="s">
+      <c r="D223" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="13" t="s">
         <v>694</v>
       </c>
       <c r="B224" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C224" s="17" t="b">
+      <c r="C224" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="14" t="s">
+      <c r="D224" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="13" t="s">
         <v>695</v>
       </c>
       <c r="B225" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C225" s="17" t="b">
+      <c r="C225" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="14" t="s">
+      <c r="D225" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="13" t="s">
         <v>696</v>
       </c>
       <c r="B226" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C226" s="15" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="14" t="s">
+      <c r="D226" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="13" t="s">
         <v>698</v>
       </c>
       <c r="B227" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="C227" s="17" t="s">
+      <c r="C227" s="15" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="14" t="s">
+      <c r="D227" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
         <v>699</v>
       </c>
       <c r="B228" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="C228" s="17" t="s">
+      <c r="C228" s="15" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="14" t="s">
+      <c r="D228" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="13" t="s">
         <v>701</v>
       </c>
       <c r="B229" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="C229" s="17">
+      <c r="C229" s="15">
         <v>0.120753428</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="14" t="s">
+      <c r="D229" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B230" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C230" s="17">
+      <c r="C230" s="15">
         <v>6006</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="14" t="s">
+      <c r="D230" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C231" s="17">
+      <c r="C231" s="15">
         <v>5012</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="14" t="s">
+      <c r="D231" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="13" t="s">
         <v>702</v>
       </c>
       <c r="B232" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C232" s="17" t="b">
+      <c r="C232" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="14" t="s">
+      <c r="D232" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="13" t="s">
         <v>1016</v>
       </c>
       <c r="B233" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C233" s="17" t="b">
+      <c r="C233" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="14" t="s">
+      <c r="D233" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="13" t="s">
         <v>704</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C234" s="17" t="b">
+      <c r="C234" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="14" t="s">
+      <c r="D234" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="13" t="s">
         <v>705</v>
       </c>
       <c r="B235" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C235" s="17" t="b">
+      <c r="C235" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="14" t="s">
+      <c r="D235" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="13" t="s">
         <v>706</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C236" s="17" t="b">
+      <c r="C236" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="14" t="s">
+      <c r="D236" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="13" t="s">
         <v>707</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C237" s="17" t="b">
+      <c r="C237" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="14" t="s">
+      <c r="D237" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="13" t="s">
         <v>708</v>
       </c>
       <c r="B238" s="11"/>
-      <c r="C238" s="17" t="b">
+      <c r="C238" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="14" t="s">
+      <c r="D238" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="13" t="s">
         <v>709</v>
       </c>
       <c r="B239" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C239" s="17" t="b">
+      <c r="C239" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="14" t="s">
+      <c r="D239" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="13" t="s">
         <v>710</v>
       </c>
       <c r="B240" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C240" s="17" t="b">
+      <c r="C240" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="14" t="s">
+      <c r="D240" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="13" t="s">
         <v>711</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C241" s="17" t="b">
+      <c r="C241" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="14" t="s">
+      <c r="D241" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="13" t="s">
         <v>712</v>
       </c>
       <c r="B242" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C242" s="17" t="b">
+      <c r="C242" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="14" t="s">
+      <c r="D242" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="13" t="s">
         <v>713</v>
       </c>
       <c r="B243" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C243" s="17" t="b">
+      <c r="C243" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="14" t="s">
+      <c r="D243" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="13" t="s">
         <v>714</v>
       </c>
       <c r="B244" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C244" s="17" t="b">
+      <c r="C244" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="14" t="s">
+      <c r="D244" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="13" t="s">
         <v>715</v>
       </c>
       <c r="B245" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C245" s="17" t="b">
+      <c r="C245" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="14" t="s">
+      <c r="D245" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="13" t="s">
         <v>716</v>
       </c>
       <c r="B246" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C246" s="17" t="b">
+      <c r="C246" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="14" t="s">
+      <c r="D246" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="13" t="s">
         <v>717</v>
       </c>
       <c r="B247" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C247" s="17" t="b">
+      <c r="C247" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="14" t="s">
+      <c r="D247" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="13" t="s">
         <v>718</v>
       </c>
       <c r="B248" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C248" s="17" t="b">
+      <c r="C248" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="14" t="s">
+      <c r="D248" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="13" t="s">
         <v>719</v>
       </c>
       <c r="B249" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C249" s="17">
+      <c r="C249" s="15">
         <v>25</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="14" t="s">
+      <c r="D249" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="13" t="s">
         <v>720</v>
       </c>
       <c r="B250" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C250" s="17">
+      <c r="C250" s="15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="14" t="s">
+      <c r="D250" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="13" t="s">
         <v>721</v>
       </c>
       <c r="B251" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C251" s="17">
+      <c r="C251" s="15">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="14" t="s">
+      <c r="D251" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="13" t="s">
         <v>722</v>
       </c>
       <c r="B252" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C252" s="17">
+      <c r="C252" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="14" t="s">
+      <c r="D252" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="13" t="s">
         <v>723</v>
       </c>
       <c r="B253" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C253" s="17">
+      <c r="C253" s="15">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="14" t="s">
+      <c r="D253" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="13" t="s">
         <v>724</v>
       </c>
       <c r="B254" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C254" s="17">
+      <c r="C254" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="14" t="s">
+      <c r="D254" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="13" t="s">
         <v>725</v>
       </c>
       <c r="B255" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C255" s="17" t="b">
+      <c r="C255" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="14" t="s">
+      <c r="D255" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="13" t="s">
         <v>726</v>
       </c>
       <c r="B256" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C256" s="17">
+      <c r="C256" s="15">
         <v>5.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="14" t="s">
+      <c r="D256" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="13" t="s">
         <v>727</v>
       </c>
       <c r="B257" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C257" s="17">
+      <c r="C257" s="15">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="14" t="s">
+      <c r="D257" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="13" t="s">
         <v>728</v>
       </c>
       <c r="B258" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C258" s="17">
+      <c r="C258" s="15">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="14" t="s">
+      <c r="D258" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="13" t="s">
         <v>729</v>
       </c>
       <c r="B259" s="11"/>
-      <c r="C259" s="17">
+      <c r="C259" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="14" t="s">
+      <c r="D259" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="13" t="s">
         <v>730</v>
       </c>
       <c r="B260" s="11"/>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="15" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="14" t="s">
+      <c r="D260" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="13" t="s">
         <v>732</v>
       </c>
       <c r="B261" s="11"/>
-      <c r="C261" s="17">
+      <c r="C261" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="14" t="s">
+      <c r="D261" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="13" t="s">
         <v>733</v>
       </c>
       <c r="B262" s="11"/>
-      <c r="C262" s="17">
+      <c r="C262" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="14" t="s">
+      <c r="D262" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="13" t="s">
         <v>734</v>
       </c>
       <c r="B263" s="11"/>
-      <c r="C263" s="17">
+      <c r="C263" s="15">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="14" t="s">
+      <c r="D263" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="13" t="s">
         <v>735</v>
       </c>
       <c r="B264" s="11"/>
-      <c r="C264" s="17">
+      <c r="C264" s="15">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="14" t="s">
+      <c r="D264" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="13" t="s">
         <v>736</v>
       </c>
       <c r="B265" s="11"/>
-      <c r="C265" s="17" t="s">
+      <c r="C265" s="15" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="14" t="s">
+      <c r="D265" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="13" t="s">
         <v>738</v>
       </c>
       <c r="B266" s="11"/>
-      <c r="C266" s="17" t="b">
+      <c r="C266" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="14" t="s">
+      <c r="D266" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="13" t="s">
         <v>739</v>
       </c>
       <c r="B267" s="11"/>
-      <c r="C267" s="17">
+      <c r="C267" s="15">
         <v>0.80869999999999997</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="14" t="s">
+      <c r="D267" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="13" t="s">
         <v>740</v>
       </c>
       <c r="B268" s="11"/>
-      <c r="C268" s="17">
+      <c r="C268" s="15">
         <v>0.80869999999999997</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="14" t="s">
+      <c r="D268" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="13" t="s">
         <v>741</v>
       </c>
       <c r="B269" s="11"/>
-      <c r="C269" s="17">
+      <c r="C269" s="15">
         <v>0.80869999999999997</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="14" t="s">
+      <c r="D269" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="13" t="s">
         <v>181</v>
       </c>
       <c r="B270" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C270" s="17">
+      <c r="C270" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="14" t="s">
+      <c r="D270" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="13" t="s">
         <v>742</v>
       </c>
       <c r="B271" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="C271" s="17" t="s">
+      <c r="C271" s="15" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="14" t="s">
+      <c r="D271" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="13" t="s">
         <v>744</v>
       </c>
       <c r="B272" s="11" t="s">
         <v>1096</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C272" s="15" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="14" t="s">
+      <c r="D272" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="13" t="s">
         <v>746</v>
       </c>
       <c r="B273" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C273" s="15" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A274" s="14" t="s">
+      <c r="D273" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="13" t="s">
         <v>748</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C274" s="15" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A275" s="14" t="s">
+      <c r="D274" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="13" t="s">
         <v>750</v>
       </c>
       <c r="B275" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C275" s="15" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="14" t="s">
+      <c r="D275" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="13" t="s">
         <v>752</v>
       </c>
       <c r="B276" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="C276" s="17" t="s">
+      <c r="C276" s="15" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="14" t="s">
+      <c r="D276" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="13" t="s">
         <v>754</v>
       </c>
       <c r="B277" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="C277" s="17" t="s">
+      <c r="C277" s="15" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="14" t="s">
+      <c r="D277" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="13" t="s">
         <v>756</v>
       </c>
       <c r="B278" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="C278" s="17" t="s">
+      <c r="C278" s="15" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="14" t="s">
+      <c r="D278" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="13" t="s">
         <v>758</v>
       </c>
       <c r="B279" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="C279" s="17" t="s">
+      <c r="C279" s="15" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="14" t="s">
+      <c r="D279" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="13" t="s">
         <v>183</v>
       </c>
       <c r="B280" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C280" s="17" t="s">
+      <c r="C280" s="15" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="14" t="s">
+      <c r="D280" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B281" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C281" s="17" t="s">
+      <c r="C281" s="15" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="14" t="s">
+      <c r="D281" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="13" t="s">
         <v>187</v>
       </c>
       <c r="B282" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C282" s="17" t="s">
+      <c r="C282" s="15" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="14" t="s">
+      <c r="D282" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="13" t="s">
         <v>763</v>
       </c>
       <c r="B283" s="11" t="s">
         <v>1124</v>
       </c>
-      <c r="C283" s="17">
+      <c r="C283" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="14" t="s">
+      <c r="D283" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="13" t="s">
         <v>764</v>
       </c>
       <c r="B284" s="11" t="s">
         <v>1124</v>
       </c>
-      <c r="C284" s="17">
+      <c r="C284" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="14" t="s">
+      <c r="D284" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="13" t="s">
         <v>765</v>
       </c>
       <c r="B285" s="11" t="s">
         <v>1124</v>
       </c>
-      <c r="C285" s="17">
+      <c r="C285" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="14" t="s">
+      <c r="D285" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="13" t="s">
         <v>766</v>
       </c>
       <c r="B286" s="11" t="s">
         <v>1124</v>
       </c>
-      <c r="C286" s="17">
+      <c r="C286" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="14" t="s">
+      <c r="D286" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="13" t="s">
         <v>189</v>
       </c>
       <c r="B287" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C287" s="17">
+      <c r="C287" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="14" t="s">
+      <c r="D287" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="13" t="s">
         <v>506</v>
       </c>
       <c r="B288" s="11" t="s">
         <v>1124</v>
       </c>
-      <c r="C288" s="17">
+      <c r="C288" s="15">
         <v>60</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="14" t="s">
+      <c r="D288" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="13" t="s">
         <v>191</v>
       </c>
       <c r="B289" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C289" s="17">
+      <c r="C289" s="15">
         <v>71.604223399999995</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="14" t="s">
+      <c r="D289" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B290" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C290" s="17">
+      <c r="C290" s="15">
         <v>2.1481267000000002</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="14" t="s">
+      <c r="D290" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B291" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C291" s="17">
+      <c r="C291" s="15">
         <v>16.366679600000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="14" t="s">
+      <c r="D291" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="13" t="s">
         <v>767</v>
       </c>
       <c r="B292" s="11" t="s">
         <v>1125</v>
       </c>
-      <c r="C292" s="17" t="s">
+      <c r="C292" s="15" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="14" t="s">
+      <c r="D292" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="13" t="s">
         <v>769</v>
       </c>
       <c r="B293" s="11" t="s">
         <v>1126</v>
       </c>
-      <c r="C293" s="17" t="s">
+      <c r="C293" s="15" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="14" t="s">
+      <c r="D293" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B294" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C294" s="17">
+      <c r="C294" s="15">
         <v>9.0415491734287398E+26</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A295" s="14" t="s">
+      <c r="D294" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="13" t="s">
         <v>771</v>
       </c>
       <c r="B295" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="C295" s="17" t="s">
+      <c r="C295" s="15" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="14" t="s">
+      <c r="D295" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="13" t="s">
         <v>773</v>
       </c>
       <c r="B296" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="C296" s="17" t="s">
+      <c r="C296" s="15" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="14" t="s">
+      <c r="D296" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="13" t="s">
         <v>775</v>
       </c>
       <c r="B297" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="C297" s="17" t="s">
+      <c r="C297" s="15" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A298" s="14" t="s">
+      <c r="D297" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="13" t="s">
         <v>777</v>
       </c>
       <c r="B298" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="C298" s="17" t="s">
+      <c r="C298" s="15" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="14" t="s">
+      <c r="D298" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="13" t="s">
         <v>779</v>
       </c>
       <c r="B299" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="C299" s="17" t="s">
+      <c r="C299" s="15" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="14" t="s">
+      <c r="D299" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="13" t="s">
         <v>781</v>
       </c>
       <c r="B300" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="C300" s="17" t="s">
+      <c r="C300" s="15" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="14" t="s">
+      <c r="D300" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="13" t="s">
         <v>783</v>
       </c>
       <c r="B301" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="C301" s="17" t="s">
+      <c r="C301" s="15" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A302" s="14" t="s">
+      <c r="D301" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="13" t="s">
         <v>785</v>
       </c>
       <c r="B302" s="11" t="s">
         <v>1130</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="C302" s="15" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A303" s="14" t="s">
+      <c r="D302" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="13" t="s">
         <v>787</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>1131</v>
       </c>
-      <c r="C303" s="17" t="s">
+      <c r="C303" s="15" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="14" t="s">
+      <c r="D303" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="13" t="s">
         <v>789</v>
       </c>
       <c r="B304" s="11" t="s">
         <v>1154</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="C304" s="15" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="14" t="s">
+      <c r="D304" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="13" t="s">
         <v>791</v>
       </c>
       <c r="B305" s="11" t="s">
         <v>1154</v>
       </c>
-      <c r="C305" s="17" t="s">
+      <c r="C305" s="15" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A306" s="14" t="s">
+      <c r="D305" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A306" s="13" t="s">
         <v>203</v>
       </c>
       <c r="B306" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C306" s="17">
+      <c r="C306" s="15">
         <v>37408</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A307" s="14" t="s">
+      <c r="D306" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A307" s="13" t="s">
         <v>205</v>
       </c>
       <c r="B307" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C307" s="17">
+      <c r="C307" s="15">
         <v>74814</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="14" t="s">
+      <c r="D307" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="13" t="s">
         <v>793</v>
       </c>
       <c r="B308" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C308" s="17">
+      <c r="C308" s="15">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="14" t="s">
+      <c r="D308" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="13" t="s">
         <v>794</v>
       </c>
       <c r="B309" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="C309" s="17" t="s">
+      <c r="C309" s="15" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="14" t="s">
+      <c r="D309" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="13" t="s">
         <v>796</v>
       </c>
       <c r="B310" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="C310" s="17" t="s">
+      <c r="C310" s="15" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="14" t="s">
+      <c r="D310" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="13" t="s">
         <v>798</v>
       </c>
       <c r="B311" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="C311" s="17" t="s">
+      <c r="C311" s="15" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A312" s="14" t="s">
+      <c r="D311" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="13" t="s">
         <v>800</v>
       </c>
       <c r="B312" s="11" t="s">
         <v>1091</v>
       </c>
-      <c r="C312" s="17" t="s">
+      <c r="C312" s="15" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="14" t="s">
+      <c r="D312" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="13" t="s">
         <v>802</v>
       </c>
       <c r="B313" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="C313" s="17" t="s">
+      <c r="C313" s="15" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="14" t="s">
+      <c r="D313" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="13" t="s">
         <v>803</v>
       </c>
       <c r="B314" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="C314" s="17" t="s">
+      <c r="C314" s="15" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="14" t="s">
+      <c r="D314" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="13" t="s">
         <v>805</v>
       </c>
       <c r="B315" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C315" s="17">
+      <c r="C315" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="14" t="s">
+      <c r="D315" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="13" t="s">
         <v>806</v>
       </c>
       <c r="B316" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C316" s="17">
+      <c r="C316" s="15">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="14" t="s">
+      <c r="D316" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="13" t="s">
         <v>807</v>
       </c>
       <c r="B317" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C317" s="17">
+      <c r="C317" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="14" t="s">
+      <c r="D317" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="13" t="s">
         <v>808</v>
       </c>
       <c r="B318" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C318" s="17">
+      <c r="C318" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="14" t="s">
+      <c r="D318" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="13" t="s">
         <v>809</v>
       </c>
       <c r="B319" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C319" s="17">
+      <c r="C319" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="14" t="s">
+      <c r="D319" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="13" t="s">
         <v>810</v>
       </c>
       <c r="B320" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C320" s="17">
+      <c r="C320" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="14" t="s">
+      <c r="D320" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="13" t="s">
         <v>811</v>
       </c>
       <c r="B321" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C321" s="17">
+      <c r="C321" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="14" t="s">
+      <c r="D321" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="13" t="s">
         <v>812</v>
       </c>
       <c r="B322" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C322" s="17">
+      <c r="C322" s="15">
         <v>-1.8350000000000002E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="14" t="s">
+      <c r="D322" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="13" t="s">
         <v>813</v>
       </c>
       <c r="B323" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C323" s="17">
+      <c r="C323" s="15">
         <v>-2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="14" t="s">
+      <c r="D323" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="13" t="s">
         <v>814</v>
       </c>
       <c r="B324" s="11"/>
-      <c r="C324" s="17">
+      <c r="C324" s="15">
         <v>5000</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="14" t="s">
+      <c r="D324" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="13" t="s">
         <v>207</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C325" s="17" t="s">
+      <c r="C325" s="15" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="14" t="s">
+      <c r="D325" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A326" s="13" t="s">
         <v>816</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C326" s="17" t="s">
+      <c r="C326" s="15" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A327" s="14" t="s">
+      <c r="D326" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A327" s="13" t="s">
         <v>818</v>
       </c>
       <c r="B327" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C327" s="17" t="s">
+      <c r="C327" s="15" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A328" s="14" t="s">
+      <c r="D327" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A328" s="13" t="s">
         <v>820</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C328" s="17" t="s">
+      <c r="C328" s="15" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="14" t="s">
+      <c r="D328" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A329" s="13" t="s">
         <v>822</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C329" s="17" t="s">
+      <c r="C329" s="15" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="14" t="s">
+      <c r="D329" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A330" s="13" t="s">
         <v>824</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C330" s="17" t="s">
+      <c r="C330" s="15" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A331" s="14" t="s">
+      <c r="D330" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A331" s="13" t="s">
         <v>826</v>
       </c>
       <c r="B331" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C331" s="17" t="s">
+      <c r="C331" s="15" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="14" t="s">
+      <c r="D331" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A332" s="13" t="s">
         <v>828</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C332" s="17" t="s">
+      <c r="C332" s="15" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="14" t="s">
+      <c r="D332" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A333" s="13" t="s">
         <v>830</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C333" s="17" t="s">
+      <c r="C333" s="15" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A334" s="14" t="s">
+      <c r="D333" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="13" t="s">
         <v>832</v>
       </c>
       <c r="B334" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C334" s="17" t="s">
+      <c r="C334" s="15" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="14" t="s">
+      <c r="D334" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A335" s="13" t="s">
         <v>834</v>
       </c>
       <c r="B335" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C335" s="17" t="s">
+      <c r="C335" s="15" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A336" s="14" t="s">
+      <c r="D335" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A336" s="13" t="s">
         <v>836</v>
       </c>
       <c r="B336" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C336" s="17" t="s">
+      <c r="C336" s="15" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="14" t="s">
+      <c r="D336" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A337" s="13" t="s">
         <v>838</v>
       </c>
       <c r="B337" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C337" s="17" t="s">
+      <c r="C337" s="15" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A338" s="14" t="s">
+      <c r="D337" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A338" s="13" t="s">
         <v>840</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C338" s="17" t="s">
+      <c r="C338" s="15" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A339" s="14" t="s">
+      <c r="D338" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A339" s="13" t="s">
         <v>842</v>
       </c>
       <c r="B339" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C339" s="17" t="s">
+      <c r="C339" s="15" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A340" s="14" t="s">
+      <c r="D339" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A340" s="13" t="s">
         <v>211</v>
       </c>
       <c r="B340" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C340" s="17" t="s">
+      <c r="C340" s="15" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A341" s="14" t="s">
+      <c r="D340" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A341" s="13" t="s">
         <v>213</v>
       </c>
       <c r="B341" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C341" s="17" t="s">
+      <c r="C341" s="15" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A342" s="14" t="s">
+      <c r="D341" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A342" s="13" t="s">
         <v>845</v>
       </c>
       <c r="B342" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C342" s="17" t="s">
+      <c r="C342" s="15" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A343" s="14" t="s">
+      <c r="D342" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A343" s="13" t="s">
         <v>847</v>
       </c>
       <c r="B343" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C343" s="17" t="s">
+      <c r="C343" s="15" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A344" s="14" t="s">
+      <c r="D343" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A344" s="13" t="s">
         <v>849</v>
       </c>
       <c r="B344" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C344" s="17" t="s">
+      <c r="C344" s="15" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A345" s="14" t="s">
+      <c r="D344" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A345" s="13" t="s">
         <v>215</v>
       </c>
       <c r="B345" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C345" s="17" t="s">
+      <c r="C345" s="15" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A346" s="14" t="s">
+      <c r="D345" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A346" s="13" t="s">
         <v>852</v>
       </c>
       <c r="B346" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C346" s="17" t="s">
+      <c r="C346" s="15" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="14" t="s">
+      <c r="D346" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="13" t="s">
         <v>217</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C347" s="17" t="s">
+      <c r="C347" s="15" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="14" t="s">
+      <c r="D347" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="13" t="s">
         <v>219</v>
       </c>
       <c r="B348" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C348" s="17" t="s">
+      <c r="C348" s="15" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A349" s="14" t="s">
+      <c r="D348" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A349" s="13" t="s">
         <v>221</v>
       </c>
       <c r="B349" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C349" s="17" t="s">
+      <c r="C349" s="15" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A350" s="14" t="s">
+      <c r="D349" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A350" s="13" t="s">
         <v>857</v>
       </c>
       <c r="B350" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C350" s="17" t="s">
+      <c r="C350" s="15" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A351" s="14" t="s">
+      <c r="D350" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A351" s="13" t="s">
         <v>859</v>
       </c>
       <c r="B351" s="11" t="s">
         <v>1143</v>
       </c>
-      <c r="C351" s="17" t="s">
+      <c r="C351" s="15" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A352" s="14" t="s">
+      <c r="D351" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A352" s="13" t="s">
         <v>860</v>
       </c>
       <c r="B352" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="C352" s="17" t="s">
+      <c r="C352" s="15" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="14" t="s">
+      <c r="D352" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A353" s="13" t="s">
         <v>862</v>
       </c>
       <c r="B353" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="C353" s="17" t="s">
+      <c r="C353" s="15" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A354" s="14" t="s">
+      <c r="D353" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A354" s="13" t="s">
         <v>223</v>
       </c>
       <c r="B354" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C354" s="17" t="s">
+      <c r="C354" s="15" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A355" s="14" t="s">
+      <c r="D354" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A355" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B355" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C355" s="17" t="s">
+      <c r="C355" s="15" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="14" t="s">
+      <c r="D355" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A356" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B356" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C356" s="17" t="s">
+      <c r="C356" s="15" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A357" s="14" t="s">
+      <c r="D356" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A357" s="13" t="s">
         <v>229</v>
       </c>
       <c r="B357" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C357" s="17" t="s">
+      <c r="C357" s="15" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A358" s="14" t="s">
+      <c r="D357" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A358" s="13" t="s">
         <v>231</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C358" s="17" t="s">
+      <c r="C358" s="15" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="14" t="s">
+      <c r="D358" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="13" t="s">
         <v>233</v>
       </c>
       <c r="B359" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C359" s="17">
+      <c r="C359" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="14" t="s">
+      <c r="D359" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B360" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C360" s="17">
+      <c r="C360" s="15">
         <v>23</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="14" t="s">
+      <c r="D360" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="13" t="s">
         <v>237</v>
       </c>
       <c r="B361" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C361" s="17" t="s">
+      <c r="C361" s="15" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A362" s="14" t="s">
+      <c r="D361" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A362" s="13" t="s">
         <v>238</v>
       </c>
       <c r="B362" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C362" s="17" t="s">
+      <c r="C362" s="15" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="14" t="s">
+      <c r="D362" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="13" t="s">
         <v>239</v>
       </c>
       <c r="B363" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C363" s="17" t="s">
+      <c r="C363" s="15" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="14" t="s">
+      <c r="D363" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B364" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C364" s="17" t="s">
+      <c r="C364" s="15" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="14" t="s">
+      <c r="D364" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B365" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="C365" s="17" t="s">
+      <c r="C365" s="15" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="14" t="s">
+      <c r="D365" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="13" t="s">
         <v>242</v>
       </c>
       <c r="B366" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C366" s="17" t="b">
+      <c r="C366" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="14" t="s">
+      <c r="D366" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B367" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C367" s="17">
+      <c r="C367" s="15">
         <v>2337</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="14" t="s">
+      <c r="D367" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="13" t="s">
         <v>245</v>
       </c>
       <c r="B368" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C368" s="17">
+      <c r="C368" s="15">
         <v>290</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="14" t="s">
+      <c r="D368" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B369" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C369" s="17">
+      <c r="C369" s="15">
         <v>345</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A370" s="14" t="s">
+      <c r="D369" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A370" s="13" t="s">
         <v>249</v>
       </c>
       <c r="B370" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C370" s="17" t="s">
+      <c r="C370" s="15" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="14" t="s">
+      <c r="D370" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="13" t="s">
         <v>873</v>
       </c>
       <c r="B371" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="C371" s="17" t="s">
+      <c r="C371" s="15" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="14" t="s">
+      <c r="D371" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="13" t="s">
         <v>875</v>
       </c>
       <c r="B372" s="11" t="s">
         <v>1145</v>
       </c>
-      <c r="C372" s="17" t="s">
+      <c r="C372" s="15" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="14" t="s">
+      <c r="D372" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A373" s="13" t="s">
         <v>877</v>
       </c>
       <c r="B373" s="11" t="s">
         <v>1146</v>
       </c>
-      <c r="C373" s="17" t="s">
+      <c r="C373" s="15" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A374" s="14" t="s">
+      <c r="D373" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A374" s="13" t="s">
         <v>879</v>
       </c>
       <c r="B374" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="C374" s="17" t="s">
+      <c r="C374" s="15" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A375" s="14" t="s">
+      <c r="D374" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A375" s="13" t="s">
         <v>880</v>
       </c>
       <c r="B375" s="11" t="s">
         <v>1100</v>
       </c>
-      <c r="C375" s="17" t="s">
+      <c r="C375" s="15" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="14" t="s">
+      <c r="D375" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="13" t="s">
         <v>1017</v>
       </c>
       <c r="B376" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="C376" s="17">
+      <c r="C376" s="15">
         <v>630730</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="14" t="s">
+      <c r="D376" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="13" t="s">
         <v>1018</v>
       </c>
       <c r="B377" s="11" t="s">
         <v>1102</v>
       </c>
-      <c r="C377" s="17" t="b">
+      <c r="C377" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="14" t="s">
+      <c r="D377" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="13" t="s">
         <v>1019</v>
       </c>
       <c r="B378" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C378" s="17">
+      <c r="C378" s="15">
         <v>23</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="14" t="s">
+      <c r="D378" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="13" t="s">
         <v>1020</v>
       </c>
       <c r="B379" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C379" s="17">
+      <c r="C379" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="14" t="s">
+      <c r="D379" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="13" t="s">
         <v>1021</v>
       </c>
       <c r="B380" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C380" s="17">
+      <c r="C380" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="14" t="s">
+      <c r="D380" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="13" t="s">
         <v>1022</v>
       </c>
       <c r="B381" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C381" s="17">
+      <c r="C381" s="15">
         <v>411419</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="14" t="s">
+      <c r="D381" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="13" t="s">
         <v>1023</v>
       </c>
       <c r="B382" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C382" s="17">
+      <c r="C382" s="15">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="14" t="s">
+      <c r="D382" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="13" t="s">
         <v>1024</v>
       </c>
       <c r="B383" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C383" s="17">
+      <c r="C383" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="14" t="s">
+      <c r="D383" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="13" t="s">
         <v>890</v>
       </c>
       <c r="B384" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C384" s="17">
+      <c r="C384" s="15">
         <v>25</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="14" t="s">
+      <c r="D384" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="13" t="s">
         <v>1025</v>
       </c>
       <c r="B385" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C385" s="17">
+      <c r="C385" s="15">
         <v>925</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="14" t="s">
+      <c r="D385" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="13" t="s">
         <v>1026</v>
       </c>
       <c r="B386" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C386" s="17">
+      <c r="C386" s="15">
         <v>2129</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="14" t="s">
+      <c r="D386" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="13" t="s">
         <v>1027</v>
       </c>
       <c r="B387" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="C387" s="17">
+      <c r="C387" s="15">
         <v>904</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A388" s="14" t="s">
+      <c r="D387" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A388" s="13" t="s">
         <v>255</v>
       </c>
       <c r="B388" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C388" s="17" t="s">
+      <c r="C388" s="15" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="14" t="s">
+      <c r="E388" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="13" t="s">
         <v>895</v>
       </c>
       <c r="B389" s="11" t="s">
         <v>1147</v>
       </c>
-      <c r="C389" s="17">
+      <c r="C389" s="15">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="14" t="s">
+      <c r="E389" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="13" t="s">
         <v>896</v>
       </c>
       <c r="B390" s="11" t="s">
         <v>1148</v>
       </c>
-      <c r="C390" s="17">
+      <c r="C390" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="14" t="s">
+      <c r="E390" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="13" t="s">
         <v>897</v>
       </c>
       <c r="B391" s="11" t="s">
         <v>1149</v>
       </c>
-      <c r="C391" s="17">
+      <c r="C391" s="15">
         <v>5.0025003500449997E+19</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="14" t="s">
+      <c r="E391" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="13" t="s">
         <v>898</v>
       </c>
       <c r="B392" s="11" t="s">
         <v>1150</v>
       </c>
-      <c r="C392" s="17">
+      <c r="C392" s="15">
         <v>5.0015005500649997E+23</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A393" s="14" t="s">
+      <c r="E392" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A393" s="13" t="s">
         <v>261</v>
       </c>
       <c r="B393" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C393" s="17" t="s">
+      <c r="C393" s="15" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A394" s="14" t="s">
+      <c r="E393" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A394" s="13" t="s">
         <v>263</v>
       </c>
       <c r="B394" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C394" s="17" t="s">
+      <c r="C394" s="15" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="14" t="s">
+      <c r="E394" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="13" t="s">
         <v>265</v>
       </c>
       <c r="B395" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C395" s="17">
+      <c r="C395" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A396" s="14" t="s">
+      <c r="E395" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A396" s="13" t="s">
         <v>267</v>
       </c>
       <c r="B396" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C396" s="17" t="s">
+      <c r="C396" s="15" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="14" t="s">
+      <c r="D396" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="13" t="s">
         <v>269</v>
       </c>
       <c r="B397" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C397" s="17" t="s">
+      <c r="C397" s="15" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A398" s="14" t="s">
+      <c r="D397" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A398" s="13" t="s">
         <v>271</v>
       </c>
       <c r="B398" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C398" s="17" t="s">
+      <c r="C398" s="15" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A399" s="14" t="s">
+      <c r="D398" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A399" s="13" t="s">
         <v>904</v>
       </c>
       <c r="B399" s="11" t="s">
         <v>1151</v>
       </c>
-      <c r="C399" s="17" t="s">
+      <c r="C399" s="15" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A400" s="14" t="s">
+      <c r="D399" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A400" s="13" t="s">
         <v>273</v>
       </c>
       <c r="B400" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C400" s="17" t="s">
+      <c r="C400" s="15" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A401" s="14" t="s">
+      <c r="D400" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A401" s="13" t="s">
         <v>275</v>
       </c>
       <c r="B401" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C401" s="17" t="s">
+      <c r="C401" s="15" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A402" s="14" t="s">
+      <c r="D401" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="13" t="s">
         <v>277</v>
       </c>
       <c r="B402" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C402" s="17" t="s">
+      <c r="C402" s="15" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A403" s="14" t="s">
+      <c r="D402" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A403" s="13" t="s">
         <v>279</v>
       </c>
       <c r="B403" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C403" s="17" t="s">
+      <c r="C403" s="15" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A404" s="14" t="s">
+      <c r="D403" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A404" s="13" t="s">
         <v>281</v>
       </c>
       <c r="B404" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C404" s="17" t="s">
+      <c r="C404" s="15" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A405" s="14" t="s">
+      <c r="D404" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A405" s="13" t="s">
         <v>283</v>
       </c>
       <c r="B405" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C405" s="17" t="s">
+      <c r="C405" s="15" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A406" s="14" t="s">
+      <c r="D405" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A406" s="13" t="s">
         <v>285</v>
       </c>
       <c r="B406" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C406" s="17" t="s">
+      <c r="C406" s="15" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A407" s="14" t="s">
+      <c r="D406" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A407" s="13" t="s">
         <v>287</v>
       </c>
       <c r="B407" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C407" s="17" t="s">
+      <c r="C407" s="15" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A408" s="14" t="s">
+      <c r="D407" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A408" s="13" t="s">
         <v>914</v>
       </c>
       <c r="B408" s="11" t="s">
         <v>1104</v>
       </c>
-      <c r="C408" s="17" t="s">
+      <c r="C408" s="15" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A409" s="14" t="s">
+      <c r="D408" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A409" s="13" t="s">
         <v>916</v>
       </c>
       <c r="B409" s="11" t="s">
         <v>1106</v>
       </c>
-      <c r="C409" s="17" t="s">
+      <c r="C409" s="15" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A410" s="14" t="s">
+      <c r="D409" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A410" s="13" t="s">
         <v>918</v>
       </c>
       <c r="B410" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="C410" s="17" t="s">
+      <c r="C410" s="15" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A411" s="14" t="s">
+      <c r="D410" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A411" s="13" t="s">
         <v>289</v>
       </c>
       <c r="B411" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C411" s="17" t="s">
+      <c r="C411" s="15" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A412" s="14" t="s">
+      <c r="D411" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A412" s="13" t="s">
         <v>921</v>
       </c>
       <c r="B412" s="11" t="s">
         <v>1105</v>
       </c>
-      <c r="C412" s="17" t="s">
+      <c r="C412" s="15" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A413" s="14" t="s">
+      <c r="D412" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A413" s="13" t="s">
         <v>291</v>
       </c>
       <c r="B413" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C413" s="17" t="s">
+      <c r="C413" s="15" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A414" s="14" t="s">
+      <c r="D413" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A414" s="13" t="s">
         <v>293</v>
       </c>
       <c r="B414" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C414" s="17" t="s">
+      <c r="C414" s="15" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A415" s="14" t="s">
+      <c r="D414" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A415" s="13" t="s">
         <v>295</v>
       </c>
       <c r="B415" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C415" s="17" t="s">
+      <c r="C415" s="15" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="14" t="s">
+      <c r="D415" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="13" t="s">
         <v>925</v>
       </c>
       <c r="B416" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="C416" s="17" t="s">
+      <c r="C416" s="15" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A417" s="14" t="s">
+      <c r="D416" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A417" s="13" t="s">
         <v>297</v>
       </c>
       <c r="B417" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C417" s="17" t="s">
+      <c r="C417" s="15" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="14" t="s">
+      <c r="D417" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="13" t="s">
         <v>928</v>
       </c>
       <c r="B418" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="C418" s="17" t="s">
+      <c r="C418" s="15" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A419" s="14" t="s">
+      <c r="D418" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A419" s="13" t="s">
         <v>299</v>
       </c>
       <c r="B419" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C419" s="17" t="s">
+      <c r="C419" s="15" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="14" t="s">
+      <c r="D419" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="13" t="s">
         <v>931</v>
       </c>
       <c r="B420" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="C420" s="17" t="s">
+      <c r="C420" s="15" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="14" t="s">
+      <c r="D420" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="13" t="s">
         <v>933</v>
       </c>
       <c r="B421" s="11" t="s">
         <v>1152</v>
       </c>
-      <c r="C421" s="17">
+      <c r="C421" s="15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A422" s="14" t="s">
+      <c r="D421" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A422" s="13" t="s">
         <v>301</v>
       </c>
       <c r="B422" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C422" s="17" t="s">
+      <c r="C422" s="15" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A423" s="14" t="s">
+      <c r="D422" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A423" s="13" t="s">
         <v>303</v>
       </c>
       <c r="B423" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C423" s="17" t="s">
+      <c r="C423" s="15" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A424" s="14" t="s">
+      <c r="D423" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A424" s="13" t="s">
         <v>305</v>
       </c>
       <c r="B424" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C424" s="17" t="b">
+      <c r="C424" s="15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A425" s="14" t="s">
+      <c r="D424" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A425" s="13" t="s">
         <v>307</v>
       </c>
       <c r="B425" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C425" s="17" t="s">
+      <c r="C425" s="15" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A426" s="14" t="s">
+      <c r="D425" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A426" s="13" t="s">
         <v>309</v>
       </c>
       <c r="B426" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C426" s="17" t="s">
+      <c r="C426" s="15" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A427" s="14" t="s">
+      <c r="D426" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A427" s="13" t="s">
         <v>311</v>
       </c>
       <c r="B427" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C427" s="17" t="s">
+      <c r="C427" s="15" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="14" t="s">
+      <c r="D427" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A428" s="13" t="s">
         <v>313</v>
       </c>
       <c r="B428" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C428" s="17" t="s">
+      <c r="C428" s="15" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="14" t="s">
+      <c r="D428" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A429" s="13" t="s">
         <v>315</v>
       </c>
       <c r="B429" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C429" s="17" t="s">
+      <c r="C429" s="15" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="14" t="s">
+      <c r="D429" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A430" s="13" t="s">
         <v>317</v>
       </c>
       <c r="B430" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C430" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A431" s="14" t="s">
+      <c r="C430" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="13" t="s">
         <v>319</v>
       </c>
       <c r="B431" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C431" s="17" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A432" s="14" t="s">
+    </row>
+    <row r="432" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B432" s="11" t="s">
+      <c r="B432" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C432" s="17" t="s">
+      <c r="C432" s="22" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="14" t="s">
+      <c r="A433" s="20" t="s">
         <v>943</v>
       </c>
-      <c r="B433" s="11" t="s">
+      <c r="B433" s="21" t="s">
         <v>1111</v>
       </c>
-      <c r="C433" s="17" t="s">
+      <c r="C433" s="22" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="14" t="s">
+      <c r="A434" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="B434" s="11" t="s">
+      <c r="B434" s="21" t="s">
         <v>1112</v>
       </c>
-      <c r="C434" s="17" t="s">
+      <c r="C434" s="22" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="14" t="s">
+      <c r="A435" s="20" t="s">
         <v>947</v>
       </c>
-      <c r="B435" s="11" t="s">
+      <c r="B435" s="21" t="s">
         <v>1113</v>
       </c>
-      <c r="C435" s="17" t="s">
+      <c r="C435" s="22" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="14" t="s">
+      <c r="A436" s="20" t="s">
         <v>949</v>
       </c>
-      <c r="B436" s="11" t="s">
+      <c r="B436" s="21" t="s">
         <v>1114</v>
       </c>
-      <c r="C436" s="17" t="s">
+      <c r="C436" s="22" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A437" s="14" t="s">
+      <c r="A437" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B437" s="11" t="s">
+      <c r="B437" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C437" s="17" t="s">
+      <c r="C437" s="22" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="14" t="s">
+      <c r="A438" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="B438" s="11" t="s">
+      <c r="B438" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C438" s="17" t="s">
+      <c r="C438" s="22" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A439" s="14" t="s">
+      <c r="A439" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="B439" s="11" t="s">
+      <c r="B439" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="C439" s="17" t="s">
+      <c r="C439" s="22" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="14" t="s">
+      <c r="A440" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="B440" s="11" t="s">
+      <c r="B440" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="C440" s="17" t="s">
+      <c r="C440" s="22" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A441" s="14" t="s">
+      <c r="A441" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B441" s="11" t="s">
+      <c r="B441" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="C441" s="17" t="s">
+      <c r="C441" s="22" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="14" t="s">
+      <c r="A442" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="B442" s="11" t="s">
+      <c r="B442" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C442" s="17" t="s">
+      <c r="C442" s="22" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="14" t="s">
+      <c r="A443" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B443" s="11" t="s">
+      <c r="B443" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="C443" s="17" t="b">
+      <c r="C443" s="22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="14" t="s">
+      <c r="A444" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="B444" s="11" t="s">
+      <c r="B444" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C444" s="17" t="s">
+      <c r="C444" s="22" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="14" t="s">
+      <c r="A445" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="B445" s="11" t="s">
+      <c r="B445" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C445" s="17" t="s">
+      <c r="C445" s="22" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="14" t="s">
+      <c r="A446" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B446" s="11" t="s">
+      <c r="B446" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="C446" s="17">
+      <c r="C446" s="22">
         <v>0.95</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="14" t="s">
+      <c r="A447" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B447" s="11" t="s">
+      <c r="B447" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C447" s="17" t="s">
+      <c r="C447" s="22" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="14" t="s">
+      <c r="A448" s="20" t="s">
         <v>957</v>
       </c>
-      <c r="B448" s="11" t="s">
+      <c r="B448" s="21" t="s">
         <v>1116</v>
       </c>
-      <c r="C448" s="17" t="s">
+      <c r="C448" s="22" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="14" t="s">
+      <c r="A449" s="20" t="s">
         <v>959</v>
       </c>
-      <c r="B449" s="11" t="s">
+      <c r="B449" s="21" t="s">
         <v>1115</v>
       </c>
-      <c r="C449" s="17" t="s">
+      <c r="C449" s="22" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="14" t="s">
+      <c r="A450" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="B450" s="11" t="s">
+      <c r="B450" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C450" s="17" t="s">
+      <c r="C450" s="22" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A451" s="14" t="s">
+      <c r="A451" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="B451" s="11" t="s">
+      <c r="B451" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C451" s="17" t="s">
+      <c r="C451" s="22" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="14" t="s">
+      <c r="A452" s="20" t="s">
         <v>962</v>
       </c>
-      <c r="B452" s="11" t="s">
+      <c r="B452" s="21" t="s">
         <v>1153</v>
       </c>
-      <c r="C452" s="17">
+      <c r="C452" s="22">
         <v>2960</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="14" t="s">
+      <c r="A453" s="20" t="s">
         <v>964</v>
       </c>
-      <c r="B453" s="11"/>
-      <c r="C453" s="17" t="s">
+      <c r="B453" s="21"/>
+      <c r="C453" s="22" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A454" s="14" t="s">
+      <c r="A454" s="20" t="s">
         <v>966</v>
       </c>
-      <c r="B454" s="11" t="s">
+      <c r="B454" s="21" t="s">
         <v>1133</v>
       </c>
-      <c r="C454" s="17" t="s">
+      <c r="C454" s="22" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A455" s="14" t="s">
+      <c r="A455" s="20" t="s">
         <v>968</v>
       </c>
-      <c r="B455" s="11" t="s">
+      <c r="B455" s="21" t="s">
         <v>1134</v>
       </c>
-      <c r="C455" s="17" t="s">
+      <c r="C455" s="22" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="14" t="s">
+      <c r="A456" s="20" t="s">
         <v>969</v>
       </c>
-      <c r="B456" s="11" t="s">
+      <c r="B456" s="21" t="s">
         <v>1135</v>
       </c>
-      <c r="C456" s="17" t="b">
+      <c r="C456" s="22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="14" t="s">
+      <c r="A457" s="20" t="s">
         <v>970</v>
       </c>
-      <c r="B457" s="11" t="s">
+      <c r="B457" s="21" t="s">
         <v>1136</v>
       </c>
-      <c r="C457" s="17" t="b">
+      <c r="C457" s="22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="14" t="s">
+      <c r="A458" s="20" t="s">
         <v>972</v>
       </c>
-      <c r="B458" s="11" t="s">
+      <c r="B458" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="C458" s="17" t="s">
+      <c r="C458" s="22" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A459" s="14" t="s">
+      <c r="A459" s="20" t="s">
         <v>974</v>
       </c>
-      <c r="B459" s="11" t="s">
+      <c r="B459" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="C459" s="17" t="s">
+      <c r="C459" s="22" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A460" s="14" t="s">
+      <c r="A460" s="20" t="s">
         <v>976</v>
       </c>
-      <c r="B460" s="11" t="s">
+      <c r="B460" s="21" t="s">
         <v>1136</v>
       </c>
-      <c r="C460" s="17" t="s">
+      <c r="C460" s="22" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="14" t="s">
+      <c r="A461" s="20" t="s">
         <v>977</v>
       </c>
-      <c r="B461" s="11" t="s">
+      <c r="B461" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="C461" s="17" t="b">
+      <c r="C461" s="22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="14" t="s">
+      <c r="A462" s="20" t="s">
         <v>978</v>
       </c>
-      <c r="B462" s="11" t="s">
+      <c r="B462" s="21" t="s">
         <v>1136</v>
       </c>
-      <c r="C462" s="17" t="b">
+      <c r="C462" s="22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A463" s="14" t="s">
+      <c r="A463" s="20" t="s">
         <v>980</v>
       </c>
-      <c r="B463" s="11" t="s">
+      <c r="B463" s="21" t="s">
         <v>1140</v>
       </c>
-      <c r="C463" s="17" t="s">
+      <c r="C463" s="22" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="15" t="s">
+      <c r="A464" s="23" t="s">
         <v>982</v>
       </c>
-      <c r="B464" s="12" t="s">
+      <c r="B464" s="24" t="s">
         <v>1141</v>
       </c>
-      <c r="C464" s="18" t="s">
+      <c r="C464" s="25" t="s">
         <v>981</v>
       </c>
     </row>

--- a/docs/SWIM_properties.xlsx
+++ b/docs/SWIM_properties.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\development\projects\tlumip\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11040" activeTab="3"/>
   </bookViews>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$1:$C$464</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="1178">
   <si>
     <t>root.dir</t>
   </si>
@@ -3550,6 +3555,15 @@
   </si>
   <si>
     <t>TR</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>@ROOT.DIR@/@SCENARIO.NAME@/@SCENARIO.INPUTS@/t0/A433fareZoneFares.file.csv</t>
+  </si>
+  <si>
+    <t>demand matrix name</t>
   </si>
 </sst>
 </file>
@@ -3580,18 +3594,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -3620,8 +3628,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="double">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3630,22 +3640,16 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3687,31 +3691,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3984,7 +3977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3994,7 +3987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0"/>
+    <sheetView topLeftCell="A103" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5491,8 +5484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K464"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection sqref="A1:A464"/>
+    <sheetView topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10674,8 +10667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D464"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10963,7 +10956,7 @@
         <v>@ROOT.DIR@/model/lib/7za.exe</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -17769,19 +17762,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="D433" sqref="D433"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1052</v>
       </c>
@@ -17791,11 +17784,12 @@
       <c r="C1" s="19" t="s">
         <v>1054</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -17805,11 +17799,12 @@
       <c r="C2" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>984</v>
       </c>
@@ -17819,11 +17814,12 @@
       <c r="C3" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -17833,11 +17829,12 @@
       <c r="C4" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -17847,11 +17844,12 @@
       <c r="C5" s="15">
         <v>1990</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -17861,11 +17859,12 @@
       <c r="C6" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>985</v>
       </c>
@@ -17875,11 +17874,12 @@
       <c r="C7" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>986</v>
       </c>
@@ -17889,11 +17889,12 @@
       <c r="C8" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>987</v>
       </c>
@@ -17903,11 +17904,12 @@
       <c r="C9" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -17917,11 +17919,12 @@
       <c r="C10" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -17931,11 +17934,12 @@
       <c r="C11" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
@@ -17945,11 +17949,12 @@
       <c r="C12" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>988</v>
       </c>
@@ -17959,11 +17964,12 @@
       <c r="C13" s="15">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
@@ -17973,11 +17979,12 @@
       <c r="C14" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
@@ -17987,11 +17994,12 @@
       <c r="C15" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>396</v>
       </c>
@@ -18001,11 +18009,12 @@
       <c r="C16" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
@@ -18015,11 +18024,12 @@
       <c r="C17" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -18029,11 +18039,12 @@
       <c r="C18" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
@@ -18043,11 +18054,12 @@
       <c r="C19" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>24</v>
       </c>
@@ -18057,11 +18069,12 @@
       <c r="C20" s="15">
         <v>0.8</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
@@ -18071,11 +18084,12 @@
       <c r="C21" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
@@ -18085,11 +18099,12 @@
       <c r="C22" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
@@ -18099,11 +18114,12 @@
       <c r="C23" s="15">
         <v>15000</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>33</v>
       </c>
@@ -18113,11 +18129,12 @@
       <c r="C24" s="15">
         <v>15000</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>35</v>
       </c>
@@ -18127,11 +18144,12 @@
       <c r="C25" s="15">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>37</v>
       </c>
@@ -18141,11 +18159,12 @@
       <c r="C26" s="15">
         <v>7067</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>39</v>
       </c>
@@ -18155,11 +18174,12 @@
       <c r="C27" s="15">
         <v>8067</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>41</v>
       </c>
@@ -18169,11 +18189,12 @@
       <c r="C28" s="15">
         <v>9067</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>402</v>
       </c>
@@ -18183,11 +18204,12 @@
       <c r="C29" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>404</v>
       </c>
@@ -18197,11 +18219,12 @@
       <c r="C30" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>406</v>
       </c>
@@ -18211,11 +18234,12 @@
       <c r="C31" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>45</v>
       </c>
@@ -18225,11 +18249,12 @@
       <c r="C32" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
@@ -18239,11 +18264,12 @@
       <c r="C33" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -18253,11 +18279,12 @@
       <c r="C34" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>51</v>
       </c>
@@ -18267,11 +18294,12 @@
       <c r="C35" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -18281,11 +18309,12 @@
       <c r="C36" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>55</v>
       </c>
@@ -18295,11 +18324,12 @@
       <c r="C37" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>57</v>
       </c>
@@ -18309,11 +18339,12 @@
       <c r="C38" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>59</v>
       </c>
@@ -18323,11 +18354,12 @@
       <c r="C39" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>61</v>
       </c>
@@ -18337,11 +18369,12 @@
       <c r="C40" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>63</v>
       </c>
@@ -18351,11 +18384,12 @@
       <c r="C41" s="15">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>65</v>
       </c>
@@ -18365,11 +18399,12 @@
       <c r="C42" s="15">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>67</v>
       </c>
@@ -18379,11 +18414,12 @@
       <c r="C43" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>69</v>
       </c>
@@ -18393,11 +18429,12 @@
       <c r="C44" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>428</v>
       </c>
@@ -18407,11 +18444,12 @@
       <c r="C45" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>71</v>
       </c>
@@ -18421,11 +18459,12 @@
       <c r="C46" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>73</v>
       </c>
@@ -18435,11 +18474,12 @@
       <c r="C47" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>432</v>
       </c>
@@ -18449,9 +18489,10 @@
       <c r="C48" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>1156</v>
       </c>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
@@ -18463,11 +18504,12 @@
       <c r="C49" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>77</v>
       </c>
@@ -18477,11 +18519,12 @@
       <c r="C50" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>79</v>
       </c>
@@ -18491,11 +18534,12 @@
       <c r="C51" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>81</v>
       </c>
@@ -18505,9 +18549,10 @@
       <c r="C52" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>1156</v>
       </c>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
@@ -18519,11 +18564,12 @@
       <c r="C53" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>439</v>
       </c>
@@ -18533,11 +18579,12 @@
       <c r="C54" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>85</v>
       </c>
@@ -18547,8 +18594,10 @@
       <c r="C55" s="15" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>989</v>
       </c>
@@ -18558,7 +18607,8 @@
       <c r="C56" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -18572,6 +18622,8 @@
       <c r="C57" s="15" t="s">
         <v>446</v>
       </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
@@ -18583,6 +18635,8 @@
       <c r="C58" s="15" t="s">
         <v>448</v>
       </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
@@ -18594,6 +18648,8 @@
       <c r="C59" s="15" t="s">
         <v>450</v>
       </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
@@ -18605,6 +18661,8 @@
       <c r="C60" s="15" t="s">
         <v>452</v>
       </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
@@ -18616,11 +18674,12 @@
       <c r="C61" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>87</v>
       </c>
@@ -18630,6 +18689,8 @@
       <c r="C62" s="15" t="s">
         <v>456</v>
       </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
@@ -18641,7 +18702,8 @@
       <c r="C63" s="15">
         <v>6006</v>
       </c>
-      <c r="E63" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -18655,11 +18717,12 @@
       <c r="C64" s="15">
         <v>5012</v>
       </c>
-      <c r="E64" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>995</v>
       </c>
@@ -18669,8 +18732,10 @@
       <c r="C65" s="15" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>461</v>
       </c>
@@ -18680,11 +18745,12 @@
       <c r="C66" s="15">
         <v>700</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>462</v>
       </c>
@@ -18694,11 +18760,12 @@
       <c r="C67" s="15">
         <v>859</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>463</v>
       </c>
@@ -18708,11 +18775,12 @@
       <c r="C68" s="15">
         <v>900</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>464</v>
       </c>
@@ -18722,11 +18790,12 @@
       <c r="C69" s="15">
         <v>1559</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>465</v>
       </c>
@@ -18736,11 +18805,12 @@
       <c r="C70" s="15">
         <v>900</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>466</v>
       </c>
@@ -18750,11 +18820,12 @@
       <c r="C71" s="15">
         <v>1559</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>467</v>
       </c>
@@ -18764,11 +18835,12 @@
       <c r="C72" s="15">
         <v>1600</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>468</v>
       </c>
@@ -18778,11 +18850,12 @@
       <c r="C73" s="15">
         <v>1759</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>469</v>
       </c>
@@ -18792,11 +18865,12 @@
       <c r="C74" s="15">
         <v>1800</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>470</v>
       </c>
@@ -18806,11 +18880,12 @@
       <c r="C75" s="15">
         <v>659</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>471</v>
       </c>
@@ -18820,11 +18895,12 @@
       <c r="C76" s="15">
         <v>1800</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>472</v>
       </c>
@@ -18834,11 +18910,12 @@
       <c r="C77" s="15">
         <v>659</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>996</v>
       </c>
@@ -18848,8 +18925,10 @@
       <c r="C78" s="15" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>997</v>
       </c>
@@ -18859,11 +18938,12 @@
       <c r="C79" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>998</v>
       </c>
@@ -18873,11 +18953,12 @@
       <c r="C80" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>999</v>
       </c>
@@ -18887,11 +18968,12 @@
       <c r="C81" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>1000</v>
       </c>
@@ -18901,11 +18983,12 @@
       <c r="C82" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>1001</v>
       </c>
@@ -18915,11 +18998,12 @@
       <c r="C83" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>1002</v>
       </c>
@@ -18929,11 +19013,12 @@
       <c r="C84" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>1003</v>
       </c>
@@ -18943,11 +19028,12 @@
       <c r="C85" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>1004</v>
       </c>
@@ -18957,11 +19043,12 @@
       <c r="C86" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>1005</v>
       </c>
@@ -18971,11 +19058,12 @@
       <c r="C87" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>1006</v>
       </c>
@@ -18985,11 +19073,12 @@
       <c r="C88" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>1007</v>
       </c>
@@ -18999,11 +19088,12 @@
       <c r="C89" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>1008</v>
       </c>
@@ -19013,11 +19103,12 @@
       <c r="C90" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>1009</v>
       </c>
@@ -19027,11 +19118,12 @@
       <c r="C91" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>1010</v>
       </c>
@@ -19041,11 +19133,12 @@
       <c r="C92" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>503</v>
       </c>
@@ -19055,11 +19148,12 @@
       <c r="C93" s="15">
         <v>3</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>504</v>
       </c>
@@ -19069,11 +19163,12 @@
       <c r="C94" s="15">
         <v>12</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>505</v>
       </c>
@@ -19083,11 +19178,12 @@
       <c r="C95" s="15">
         <v>25</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>99</v>
       </c>
@@ -19097,9 +19193,10 @@
       <c r="C96" s="15">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>1163</v>
       </c>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
@@ -19109,9 +19206,10 @@
       <c r="C97" s="15">
         <v>10</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>1163</v>
       </c>
+      <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
@@ -19121,9 +19219,10 @@
       <c r="C98" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>1163</v>
       </c>
+      <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
@@ -19135,11 +19234,12 @@
       <c r="C99" s="15">
         <v>1</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>103</v>
       </c>
@@ -19149,11 +19249,12 @@
       <c r="C100" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>105</v>
       </c>
@@ -19163,11 +19264,12 @@
       <c r="C101" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>107</v>
       </c>
@@ -19177,11 +19279,12 @@
       <c r="C102" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>109</v>
       </c>
@@ -19191,11 +19294,12 @@
       <c r="C103" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="E103" t="s">
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>111</v>
       </c>
@@ -19205,9 +19309,10 @@
       <c r="C104" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>1165</v>
       </c>
+      <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
@@ -19219,11 +19324,12 @@
       <c r="C105" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>514</v>
       </c>
@@ -19233,11 +19339,12 @@
       <c r="C106" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>516</v>
       </c>
@@ -19247,11 +19354,12 @@
       <c r="C107" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>518</v>
       </c>
@@ -19261,11 +19369,12 @@
       <c r="C108" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>520</v>
       </c>
@@ -19275,11 +19384,12 @@
       <c r="C109" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>522</v>
       </c>
@@ -19289,11 +19399,12 @@
       <c r="C110" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>524</v>
       </c>
@@ -19303,11 +19414,12 @@
       <c r="C111" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>526</v>
       </c>
@@ -19317,11 +19429,12 @@
       <c r="C112" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>528</v>
       </c>
@@ -19331,11 +19444,12 @@
       <c r="C113" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>530</v>
       </c>
@@ -19345,11 +19459,12 @@
       <c r="C114" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>532</v>
       </c>
@@ -19359,11 +19474,12 @@
       <c r="C115" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>119</v>
       </c>
@@ -19373,9 +19489,10 @@
       <c r="C116" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>1165</v>
       </c>
+      <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
@@ -19387,9 +19504,10 @@
       <c r="C117" s="15">
         <v>2009</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>1165</v>
       </c>
+      <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
@@ -19401,9 +19519,10 @@
       <c r="C118" s="15">
         <v>19</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>1165</v>
       </c>
+      <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
@@ -19415,9 +19534,10 @@
       <c r="C119" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>1165</v>
       </c>
+      <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
@@ -19429,9 +19549,10 @@
       <c r="C120" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>1165</v>
       </c>
+      <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
@@ -19443,10 +19564,10 @@
       <c r="C121" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="3" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -19460,11 +19581,12 @@
       <c r="C122" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>132</v>
       </c>
@@ -19474,11 +19596,12 @@
       <c r="C123" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>134</v>
       </c>
@@ -19488,11 +19611,12 @@
       <c r="C124" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>539</v>
       </c>
@@ -19502,11 +19626,12 @@
       <c r="C125" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>541</v>
       </c>
@@ -19516,11 +19641,12 @@
       <c r="C126" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>1011</v>
       </c>
@@ -19530,11 +19656,12 @@
       <c r="C127" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>1012</v>
       </c>
@@ -19544,11 +19671,12 @@
       <c r="C128" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>547</v>
       </c>
@@ -19558,11 +19686,12 @@
       <c r="C129" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>1013</v>
       </c>
@@ -19572,11 +19701,12 @@
       <c r="C130" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>550</v>
       </c>
@@ -19586,11 +19716,12 @@
       <c r="C131" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>552</v>
       </c>
@@ -19600,11 +19731,12 @@
       <c r="C132" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>554</v>
       </c>
@@ -19614,11 +19746,12 @@
       <c r="C133" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>556</v>
       </c>
@@ -19628,11 +19761,12 @@
       <c r="C134" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>558</v>
       </c>
@@ -19642,11 +19776,12 @@
       <c r="C135" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>560</v>
       </c>
@@ -19656,11 +19791,12 @@
       <c r="C136" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>562</v>
       </c>
@@ -19670,11 +19806,12 @@
       <c r="C137" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>564</v>
       </c>
@@ -19684,11 +19821,12 @@
       <c r="C138" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>566</v>
       </c>
@@ -19698,11 +19836,12 @@
       <c r="C139" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>568</v>
       </c>
@@ -19712,11 +19851,12 @@
       <c r="C140" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>570</v>
       </c>
@@ -19726,11 +19866,12 @@
       <c r="C141" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>572</v>
       </c>
@@ -19740,11 +19881,12 @@
       <c r="C142" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>574</v>
       </c>
@@ -19754,11 +19896,12 @@
       <c r="C143" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>576</v>
       </c>
@@ -19768,11 +19911,12 @@
       <c r="C144" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>577</v>
       </c>
@@ -19782,11 +19926,12 @@
       <c r="C145" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>579</v>
       </c>
@@ -19796,11 +19941,12 @@
       <c r="C146" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>581</v>
       </c>
@@ -19810,9 +19956,10 @@
       <c r="C147" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>1166</v>
       </c>
+      <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
@@ -19824,11 +19971,12 @@
       <c r="C148" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>253</v>
       </c>
@@ -19838,10 +19986,10 @@
       <c r="C149" s="15">
         <v>1970</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -19853,9 +20001,10 @@
       <c r="C150" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>1168</v>
       </c>
+      <c r="E150" s="3"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
@@ -19867,9 +20016,10 @@
       <c r="C151" s="15">
         <v>1</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>1168</v>
       </c>
+      <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
@@ -19881,11 +20031,12 @@
       <c r="C152" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>139</v>
       </c>
@@ -19895,11 +20046,12 @@
       <c r="C153" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>141</v>
       </c>
@@ -19909,11 +20061,12 @@
       <c r="C154" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>143</v>
       </c>
@@ -19923,11 +20076,12 @@
       <c r="C155" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>588</v>
       </c>
@@ -19937,11 +20091,12 @@
       <c r="C156" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>145</v>
       </c>
@@ -19951,14 +20106,14 @@
       <c r="C157" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>147</v>
       </c>
@@ -19968,11 +20123,12 @@
       <c r="C158" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>149</v>
       </c>
@@ -19982,11 +20138,12 @@
       <c r="C159" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>151</v>
       </c>
@@ -19996,11 +20153,12 @@
       <c r="C160" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>153</v>
       </c>
@@ -20010,11 +20168,12 @@
       <c r="C161" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>155</v>
       </c>
@@ -20024,11 +20183,12 @@
       <c r="C162" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>157</v>
       </c>
@@ -20038,11 +20198,12 @@
       <c r="C163" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>159</v>
       </c>
@@ -20052,11 +20213,12 @@
       <c r="C164" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>598</v>
       </c>
@@ -20064,11 +20226,12 @@
       <c r="C165" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>600</v>
       </c>
@@ -20076,11 +20239,12 @@
       <c r="C166" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>1014</v>
       </c>
@@ -20088,11 +20252,12 @@
       <c r="C167" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>161</v>
       </c>
@@ -20102,11 +20267,12 @@
       <c r="C168" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>163</v>
       </c>
@@ -20116,11 +20282,12 @@
       <c r="C169" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>165</v>
       </c>
@@ -20130,11 +20297,12 @@
       <c r="C170" s="15">
         <v>8.0001500023000305E+39</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>606</v>
       </c>
@@ -20142,11 +20310,12 @@
       <c r="C171" s="15">
         <v>2</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>607</v>
       </c>
@@ -20154,11 +20323,12 @@
       <c r="C172" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>167</v>
       </c>
@@ -20168,11 +20338,12 @@
       <c r="C173" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>609</v>
       </c>
@@ -20182,11 +20353,12 @@
       <c r="C174" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>611</v>
       </c>
@@ -20196,11 +20368,12 @@
       <c r="C175" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>613</v>
       </c>
@@ -20210,11 +20383,12 @@
       <c r="C176" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>615</v>
       </c>
@@ -20224,11 +20398,12 @@
       <c r="C177" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>617</v>
       </c>
@@ -20238,11 +20413,12 @@
       <c r="C178" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>619</v>
       </c>
@@ -20252,11 +20428,12 @@
       <c r="C179" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>621</v>
       </c>
@@ -20266,11 +20443,12 @@
       <c r="C180" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>623</v>
       </c>
@@ -20280,11 +20458,12 @@
       <c r="C181" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>625</v>
       </c>
@@ -20294,11 +20473,12 @@
       <c r="C182" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>627</v>
       </c>
@@ -20308,11 +20488,12 @@
       <c r="C183" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>629</v>
       </c>
@@ -20322,11 +20503,12 @@
       <c r="C184" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
         <v>630</v>
       </c>
@@ -20336,11 +20518,12 @@
       <c r="C185" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>631</v>
       </c>
@@ -20350,11 +20533,12 @@
       <c r="C186" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
         <v>633</v>
       </c>
@@ -20364,11 +20548,12 @@
       <c r="C187" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>635</v>
       </c>
@@ -20378,11 +20563,12 @@
       <c r="C188" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>637</v>
       </c>
@@ -20392,11 +20578,12 @@
       <c r="C189" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>639</v>
       </c>
@@ -20406,11 +20593,12 @@
       <c r="C190" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>641</v>
       </c>
@@ -20420,11 +20608,12 @@
       <c r="C191" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>643</v>
       </c>
@@ -20434,9 +20623,10 @@
       <c r="C192" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>1162</v>
       </c>
+      <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
@@ -20448,9 +20638,10 @@
       <c r="C193" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>1162</v>
       </c>
+      <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
@@ -20462,9 +20653,10 @@
       <c r="C194" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="3" t="s">
         <v>1162</v>
       </c>
+      <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
@@ -20476,9 +20668,10 @@
       <c r="C195" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>1162</v>
       </c>
+      <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
@@ -20490,9 +20683,10 @@
       <c r="C196" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="3" t="s">
         <v>1162</v>
       </c>
+      <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
@@ -20504,9 +20698,10 @@
       <c r="C197" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>1162</v>
       </c>
+      <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
@@ -20518,9 +20713,10 @@
       <c r="C198" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="3" t="s">
         <v>1162</v>
       </c>
+      <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
@@ -20532,9 +20728,10 @@
       <c r="C199" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>1162</v>
       </c>
+      <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
@@ -20546,9 +20743,10 @@
       <c r="C200" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="3" t="s">
         <v>1162</v>
       </c>
+      <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
@@ -20560,14 +20758,14 @@
       <c r="C201" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="3" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>175</v>
       </c>
@@ -20577,9 +20775,10 @@
       <c r="C202" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
@@ -20591,9 +20790,10 @@
       <c r="C203" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
@@ -20605,9 +20805,10 @@
       <c r="C204" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
@@ -20619,11 +20820,12 @@
       <c r="C205" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>668</v>
       </c>
@@ -20633,9 +20835,10 @@
       <c r="C206" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
@@ -20647,11 +20850,12 @@
       <c r="C207" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>672</v>
       </c>
@@ -20661,11 +20865,12 @@
       <c r="C208" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>674</v>
       </c>
@@ -20675,11 +20880,12 @@
       <c r="C209" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>675</v>
       </c>
@@ -20689,11 +20895,12 @@
       <c r="C210" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>677</v>
       </c>
@@ -20703,11 +20910,12 @@
       <c r="C211" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="3" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>679</v>
       </c>
@@ -20717,11 +20925,12 @@
       <c r="C212" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>680</v>
       </c>
@@ -20731,11 +20940,12 @@
       <c r="C213" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>681</v>
       </c>
@@ -20745,11 +20955,12 @@
       <c r="C214" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>1015</v>
       </c>
@@ -20759,7 +20970,8 @@
       <c r="C215" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="E215" t="s">
+      <c r="D215" s="3"/>
+      <c r="E215" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -20773,10 +20985,10 @@
       <c r="C216" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -20790,14 +21002,14 @@
       <c r="C217" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>687</v>
       </c>
@@ -20807,9 +21019,10 @@
       <c r="C218" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E218" s="3"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
@@ -20821,9 +21034,10 @@
       <c r="C219" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E219" s="3"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
@@ -20833,9 +21047,10 @@
       <c r="C220" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E220" s="3"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
@@ -20847,9 +21062,10 @@
       <c r="C221" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E221" s="3"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
@@ -20861,9 +21077,10 @@
       <c r="C222" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E222" s="3"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
@@ -20875,9 +21092,10 @@
       <c r="C223" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E223" s="3"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
@@ -20889,9 +21107,10 @@
       <c r="C224" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E224" s="3"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
@@ -20903,11 +21122,12 @@
       <c r="C225" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
         <v>696</v>
       </c>
@@ -20917,11 +21137,12 @@
       <c r="C226" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
         <v>698</v>
       </c>
@@ -20931,11 +21152,12 @@
       <c r="C227" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
         <v>699</v>
       </c>
@@ -20945,9 +21167,10 @@
       <c r="C228" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E228" s="3"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
@@ -20959,9 +21182,10 @@
       <c r="C229" s="15">
         <v>0.120753428</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E229" s="3"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
@@ -20973,10 +21197,10 @@
       <c r="C230" s="15">
         <v>6006</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -20990,10 +21214,10 @@
       <c r="C231" s="15">
         <v>5012</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -21007,9 +21231,10 @@
       <c r="C232" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E232" s="3"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
@@ -21021,9 +21246,10 @@
       <c r="C233" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E233" s="3"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
@@ -21035,9 +21261,10 @@
       <c r="C234" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
@@ -21049,9 +21276,10 @@
       <c r="C235" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
@@ -21063,9 +21291,10 @@
       <c r="C236" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
@@ -21077,9 +21306,10 @@
       <c r="C237" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
@@ -21089,9 +21319,10 @@
       <c r="C238" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
@@ -21103,9 +21334,10 @@
       <c r="C239" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="3" t="s">
         <v>1158</v>
       </c>
+      <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
@@ -21117,11 +21349,12 @@
       <c r="C240" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
         <v>711</v>
       </c>
@@ -21131,11 +21364,12 @@
       <c r="C241" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>712</v>
       </c>
@@ -21145,11 +21379,12 @@
       <c r="C242" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
         <v>713</v>
       </c>
@@ -21159,11 +21394,12 @@
       <c r="C243" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
         <v>714</v>
       </c>
@@ -21173,11 +21409,12 @@
       <c r="C244" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
         <v>715</v>
       </c>
@@ -21187,11 +21424,12 @@
       <c r="C245" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
         <v>716</v>
       </c>
@@ -21201,11 +21439,12 @@
       <c r="C246" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
         <v>717</v>
       </c>
@@ -21215,11 +21454,12 @@
       <c r="C247" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>718</v>
       </c>
@@ -21229,11 +21469,12 @@
       <c r="C248" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>719</v>
       </c>
@@ -21243,11 +21484,12 @@
       <c r="C249" s="15">
         <v>25</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
         <v>720</v>
       </c>
@@ -21257,11 +21499,12 @@
       <c r="C250" s="15">
         <v>1200</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
         <v>721</v>
       </c>
@@ -21271,11 +21514,12 @@
       <c r="C251" s="15">
         <v>2E-3</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
         <v>722</v>
       </c>
@@ -21285,11 +21529,12 @@
       <c r="C252" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="s">
         <v>723</v>
       </c>
@@ -21299,11 +21544,12 @@
       <c r="C253" s="15">
         <v>2.5</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
         <v>724</v>
       </c>
@@ -21313,11 +21559,12 @@
       <c r="C254" s="15">
         <v>1</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
         <v>725</v>
       </c>
@@ -21327,11 +21574,12 @@
       <c r="C255" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
         <v>726</v>
       </c>
@@ -21341,11 +21589,12 @@
       <c r="C256" s="15">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
         <v>727</v>
       </c>
@@ -21355,11 +21604,12 @@
       <c r="C257" s="15">
         <v>0.02</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
         <v>728</v>
       </c>
@@ -21369,11 +21619,12 @@
       <c r="C258" s="15">
         <v>0.01</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
         <v>729</v>
       </c>
@@ -21381,11 +21632,12 @@
       <c r="C259" s="15">
         <v>19</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="s">
         <v>730</v>
       </c>
@@ -21393,11 +21645,12 @@
       <c r="C260" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
         <v>732</v>
       </c>
@@ -21405,11 +21658,12 @@
       <c r="C261" s="15">
         <v>2</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
         <v>733</v>
       </c>
@@ -21417,11 +21671,12 @@
       <c r="C262" s="15">
         <v>1</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
         <v>734</v>
       </c>
@@ -21429,11 +21684,12 @@
       <c r="C263" s="15">
         <v>2.5</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
         <v>735</v>
       </c>
@@ -21441,11 +21697,12 @@
       <c r="C264" s="15">
         <v>0.02</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="s">
         <v>736</v>
       </c>
@@ -21453,11 +21710,12 @@
       <c r="C265" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
         <v>738</v>
       </c>
@@ -21465,11 +21723,12 @@
       <c r="C266" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
         <v>739</v>
       </c>
@@ -21477,11 +21736,12 @@
       <c r="C267" s="15">
         <v>0.80869999999999997</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
         <v>740</v>
       </c>
@@ -21489,11 +21749,12 @@
       <c r="C268" s="15">
         <v>0.80869999999999997</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
         <v>741</v>
       </c>
@@ -21501,11 +21762,12 @@
       <c r="C269" s="15">
         <v>0.80869999999999997</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
         <v>181</v>
       </c>
@@ -21515,11 +21777,12 @@
       <c r="C270" s="15">
         <v>50</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
         <v>742</v>
       </c>
@@ -21529,11 +21792,12 @@
       <c r="C271" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
         <v>744</v>
       </c>
@@ -21543,11 +21807,12 @@
       <c r="C272" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
         <v>746</v>
       </c>
@@ -21557,11 +21822,12 @@
       <c r="C273" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="s">
         <v>748</v>
       </c>
@@ -21571,11 +21837,12 @@
       <c r="C274" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="s">
         <v>750</v>
       </c>
@@ -21585,11 +21852,12 @@
       <c r="C275" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
         <v>752</v>
       </c>
@@ -21599,11 +21867,12 @@
       <c r="C276" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="s">
         <v>754</v>
       </c>
@@ -21613,11 +21882,12 @@
       <c r="C277" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="s">
         <v>756</v>
       </c>
@@ -21627,11 +21897,12 @@
       <c r="C278" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>758</v>
       </c>
@@ -21641,11 +21912,12 @@
       <c r="C279" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>183</v>
       </c>
@@ -21655,11 +21927,12 @@
       <c r="C280" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>185</v>
       </c>
@@ -21669,11 +21942,12 @@
       <c r="C281" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>187</v>
       </c>
@@ -21683,11 +21957,12 @@
       <c r="C282" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>763</v>
       </c>
@@ -21697,11 +21972,12 @@
       <c r="C283" s="15">
         <v>10</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
         <v>764</v>
       </c>
@@ -21711,11 +21987,12 @@
       <c r="C284" s="15">
         <v>50</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
         <v>765</v>
       </c>
@@ -21725,11 +22002,12 @@
       <c r="C285" s="15">
         <v>30</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
         <v>766</v>
       </c>
@@ -21739,11 +22017,12 @@
       <c r="C286" s="15">
         <v>30</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
         <v>189</v>
       </c>
@@ -21753,11 +22032,12 @@
       <c r="C287" s="15">
         <v>50</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
         <v>506</v>
       </c>
@@ -21767,11 +22047,12 @@
       <c r="C288" s="15">
         <v>60</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
         <v>191</v>
       </c>
@@ -21781,11 +22062,12 @@
       <c r="C289" s="15">
         <v>71.604223399999995</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
         <v>193</v>
       </c>
@@ -21795,11 +22077,12 @@
       <c r="C290" s="15">
         <v>2.1481267000000002</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
         <v>195</v>
       </c>
@@ -21809,11 +22092,12 @@
       <c r="C291" s="15">
         <v>16.366679600000001</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
         <v>767</v>
       </c>
@@ -21823,11 +22107,12 @@
       <c r="C292" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="s">
         <v>769</v>
       </c>
@@ -21837,11 +22122,12 @@
       <c r="C293" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
         <v>197</v>
       </c>
@@ -21851,11 +22137,12 @@
       <c r="C294" s="15">
         <v>9.0415491734287398E+26</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
         <v>771</v>
       </c>
@@ -21865,11 +22152,12 @@
       <c r="C295" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
         <v>773</v>
       </c>
@@ -21879,11 +22167,12 @@
       <c r="C296" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
         <v>775</v>
       </c>
@@ -21893,11 +22182,12 @@
       <c r="C297" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="s">
         <v>777</v>
       </c>
@@ -21907,11 +22197,12 @@
       <c r="C298" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" s="3"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
         <v>779</v>
       </c>
@@ -21921,11 +22212,12 @@
       <c r="C299" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" s="3"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
         <v>781</v>
       </c>
@@ -21935,11 +22227,12 @@
       <c r="C300" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="s">
         <v>783</v>
       </c>
@@ -21949,11 +22242,12 @@
       <c r="C301" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
         <v>785</v>
       </c>
@@ -21963,11 +22257,12 @@
       <c r="C302" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E302" s="3"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="s">
         <v>787</v>
       </c>
@@ -21977,11 +22272,12 @@
       <c r="C303" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
         <v>789</v>
       </c>
@@ -21991,11 +22287,12 @@
       <c r="C304" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="s">
         <v>791</v>
       </c>
@@ -22005,11 +22302,12 @@
       <c r="C305" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="s">
         <v>203</v>
       </c>
@@ -22019,11 +22317,12 @@
       <c r="C306" s="15">
         <v>37408</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="s">
         <v>205</v>
       </c>
@@ -22033,11 +22332,12 @@
       <c r="C307" s="15">
         <v>74814</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="s">
         <v>793</v>
       </c>
@@ -22047,11 +22347,12 @@
       <c r="C308" s="15">
         <v>2.5</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" s="3"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="s">
         <v>794</v>
       </c>
@@ -22061,11 +22362,12 @@
       <c r="C309" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
         <v>796</v>
       </c>
@@ -22075,11 +22377,12 @@
       <c r="C310" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="3"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="s">
         <v>798</v>
       </c>
@@ -22089,11 +22392,12 @@
       <c r="C311" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E311" s="3"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="s">
         <v>800</v>
       </c>
@@ -22103,11 +22407,12 @@
       <c r="C312" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="3"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="s">
         <v>802</v>
       </c>
@@ -22117,11 +22422,12 @@
       <c r="C313" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E313" s="3"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="s">
         <v>803</v>
       </c>
@@ -22131,11 +22437,12 @@
       <c r="C314" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="s">
         <v>805</v>
       </c>
@@ -22145,11 +22452,12 @@
       <c r="C315" s="15">
         <v>0</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="3"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
         <v>806</v>
       </c>
@@ -22159,11 +22467,12 @@
       <c r="C316" s="15">
         <v>0.54</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="3"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="s">
         <v>807</v>
       </c>
@@ -22173,11 +22482,12 @@
       <c r="C317" s="15">
         <v>0</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="3"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="s">
         <v>808</v>
       </c>
@@ -22187,11 +22497,12 @@
       <c r="C318" s="15">
         <v>0</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="3"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="s">
         <v>809</v>
       </c>
@@ -22201,11 +22512,12 @@
       <c r="C319" s="15">
         <v>0</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="3"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="s">
         <v>810</v>
       </c>
@@ -22215,11 +22527,12 @@
       <c r="C320" s="15">
         <v>0</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" s="3"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="s">
         <v>811</v>
       </c>
@@ -22229,11 +22542,12 @@
       <c r="C321" s="15">
         <v>0</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="3"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
         <v>812</v>
       </c>
@@ -22243,11 +22557,12 @@
       <c r="C322" s="15">
         <v>-1.8350000000000002E-2</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
         <v>813</v>
       </c>
@@ -22257,11 +22572,12 @@
       <c r="C323" s="15">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" s="3"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
         <v>814</v>
       </c>
@@ -22269,11 +22585,12 @@
       <c r="C324" s="15">
         <v>5000</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="3"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="s">
         <v>207</v>
       </c>
@@ -22283,11 +22600,12 @@
       <c r="C325" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E325" s="3"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
         <v>816</v>
       </c>
@@ -22297,11 +22615,12 @@
       <c r="C326" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E326" s="3"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
         <v>818</v>
       </c>
@@ -22311,11 +22630,12 @@
       <c r="C327" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E327" s="3"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
         <v>820</v>
       </c>
@@ -22325,11 +22645,12 @@
       <c r="C328" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E328" s="3"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="s">
         <v>822</v>
       </c>
@@ -22339,11 +22660,12 @@
       <c r="C329" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E329" s="3"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="13" t="s">
         <v>824</v>
       </c>
@@ -22353,11 +22675,12 @@
       <c r="C330" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E330" s="3"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="13" t="s">
         <v>826</v>
       </c>
@@ -22367,11 +22690,12 @@
       <c r="C331" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="13" t="s">
         <v>828</v>
       </c>
@@ -22381,11 +22705,12 @@
       <c r="C332" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E332" s="3"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="13" t="s">
         <v>830</v>
       </c>
@@ -22395,11 +22720,12 @@
       <c r="C333" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E333" s="3"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="s">
         <v>832</v>
       </c>
@@ -22409,11 +22735,12 @@
       <c r="C334" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E334" s="3"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="13" t="s">
         <v>834</v>
       </c>
@@ -22423,11 +22750,12 @@
       <c r="C335" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E335" s="3"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="s">
         <v>836</v>
       </c>
@@ -22437,11 +22765,12 @@
       <c r="C336" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="13" t="s">
         <v>838</v>
       </c>
@@ -22451,11 +22780,12 @@
       <c r="C337" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E337" s="3"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="s">
         <v>840</v>
       </c>
@@ -22465,11 +22795,12 @@
       <c r="C338" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E338" s="3"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="13" t="s">
         <v>842</v>
       </c>
@@ -22479,11 +22810,12 @@
       <c r="C339" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E339" s="3"/>
+    </row>
+    <row r="340" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A340" s="13" t="s">
         <v>211</v>
       </c>
@@ -22493,11 +22825,12 @@
       <c r="C340" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E340" s="3"/>
+    </row>
+    <row r="341" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A341" s="13" t="s">
         <v>213</v>
       </c>
@@ -22507,11 +22840,12 @@
       <c r="C341" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="13" t="s">
         <v>845</v>
       </c>
@@ -22521,11 +22855,12 @@
       <c r="C342" s="15" t="s">
         <v>846</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="13" t="s">
         <v>847</v>
       </c>
@@ -22535,11 +22870,12 @@
       <c r="C343" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="13" t="s">
         <v>849</v>
       </c>
@@ -22549,11 +22885,12 @@
       <c r="C344" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="13" t="s">
         <v>215</v>
       </c>
@@ -22563,11 +22900,12 @@
       <c r="C345" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="s">
         <v>852</v>
       </c>
@@ -22577,11 +22915,12 @@
       <c r="C346" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="13" t="s">
         <v>217</v>
       </c>
@@ -22591,11 +22930,12 @@
       <c r="C347" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="13" t="s">
         <v>219</v>
       </c>
@@ -22605,11 +22945,12 @@
       <c r="C348" s="15" t="s">
         <v>855</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="13" t="s">
         <v>221</v>
       </c>
@@ -22619,11 +22960,12 @@
       <c r="C349" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="13" t="s">
         <v>857</v>
       </c>
@@ -22633,11 +22975,12 @@
       <c r="C350" s="15" t="s">
         <v>858</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="13" t="s">
         <v>859</v>
       </c>
@@ -22647,11 +22990,12 @@
       <c r="C351" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="13" t="s">
         <v>860</v>
       </c>
@@ -22661,11 +23005,12 @@
       <c r="C352" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E352" s="3"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="13" t="s">
         <v>862</v>
       </c>
@@ -22675,11 +23020,12 @@
       <c r="C353" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E353" s="3"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="13" t="s">
         <v>223</v>
       </c>
@@ -22689,11 +23035,12 @@
       <c r="C354" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E354" s="3"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="13" t="s">
         <v>225</v>
       </c>
@@ -22703,11 +23050,12 @@
       <c r="C355" s="15" t="s">
         <v>865</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E355" s="3"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="13" t="s">
         <v>227</v>
       </c>
@@ -22717,11 +23065,12 @@
       <c r="C356" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E356" s="3"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="13" t="s">
         <v>229</v>
       </c>
@@ -22731,11 +23080,12 @@
       <c r="C357" s="15" t="s">
         <v>867</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E357" s="3"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="13" t="s">
         <v>231</v>
       </c>
@@ -22745,11 +23095,12 @@
       <c r="C358" s="15" t="s">
         <v>868</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" s="3"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="13" t="s">
         <v>233</v>
       </c>
@@ -22759,11 +23110,12 @@
       <c r="C359" s="15">
         <v>5</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" s="3"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="13" t="s">
         <v>235</v>
       </c>
@@ -22773,11 +23125,12 @@
       <c r="C360" s="15">
         <v>23</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" s="3"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="13" t="s">
         <v>237</v>
       </c>
@@ -22787,11 +23140,12 @@
       <c r="C361" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E361" s="3"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="13" t="s">
         <v>238</v>
       </c>
@@ -22801,11 +23155,12 @@
       <c r="C362" s="15" t="s">
         <v>870</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" s="3"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="13" t="s">
         <v>239</v>
       </c>
@@ -22815,11 +23170,12 @@
       <c r="C363" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" s="3"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="s">
         <v>240</v>
       </c>
@@ -22829,11 +23185,12 @@
       <c r="C364" s="15" t="s">
         <v>870</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" s="3"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="13" t="s">
         <v>241</v>
       </c>
@@ -22843,11 +23200,12 @@
       <c r="C365" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" s="3"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="13" t="s">
         <v>242</v>
       </c>
@@ -22857,11 +23215,12 @@
       <c r="C366" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" s="3"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="13" t="s">
         <v>243</v>
       </c>
@@ -22871,11 +23230,12 @@
       <c r="C367" s="15">
         <v>2337</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" s="3"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="13" t="s">
         <v>245</v>
       </c>
@@ -22885,11 +23245,12 @@
       <c r="C368" s="15">
         <v>290</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" s="3"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="13" t="s">
         <v>247</v>
       </c>
@@ -22899,11 +23260,12 @@
       <c r="C369" s="15">
         <v>345</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E369" s="3"/>
+    </row>
+    <row r="370" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A370" s="13" t="s">
         <v>249</v>
       </c>
@@ -22913,11 +23275,12 @@
       <c r="C370" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="3" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" s="3"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="13" t="s">
         <v>873</v>
       </c>
@@ -22927,11 +23290,12 @@
       <c r="C371" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" s="3"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="13" t="s">
         <v>875</v>
       </c>
@@ -22941,11 +23305,12 @@
       <c r="C372" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E372" s="3"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="s">
         <v>877</v>
       </c>
@@ -22955,11 +23320,12 @@
       <c r="C373" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E373" s="3"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="13" t="s">
         <v>879</v>
       </c>
@@ -22969,11 +23335,12 @@
       <c r="C374" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E374" s="3"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="13" t="s">
         <v>880</v>
       </c>
@@ -22983,11 +23350,12 @@
       <c r="C375" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" s="3"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="s">
         <v>1017</v>
       </c>
@@ -22997,11 +23365,12 @@
       <c r="C376" s="15">
         <v>630730</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" s="3"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="13" t="s">
         <v>1018</v>
       </c>
@@ -23011,11 +23380,12 @@
       <c r="C377" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" s="3"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="13" t="s">
         <v>1019</v>
       </c>
@@ -23025,11 +23395,12 @@
       <c r="C378" s="15">
         <v>23</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" s="3"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="13" t="s">
         <v>1020</v>
       </c>
@@ -23039,11 +23410,12 @@
       <c r="C379" s="15">
         <v>4</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" s="3"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="13" t="s">
         <v>1021</v>
       </c>
@@ -23053,11 +23425,12 @@
       <c r="C380" s="15">
         <v>50</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" s="3"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="13" t="s">
         <v>1022</v>
       </c>
@@ -23067,11 +23440,12 @@
       <c r="C381" s="15">
         <v>411419</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" s="3"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="13" t="s">
         <v>1023</v>
       </c>
@@ -23081,11 +23455,12 @@
       <c r="C382" s="15">
         <v>2.41</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" s="3"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="13" t="s">
         <v>1024</v>
       </c>
@@ -23095,11 +23470,12 @@
       <c r="C383" s="15">
         <v>2</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" s="3"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="13" t="s">
         <v>890</v>
       </c>
@@ -23109,9 +23485,10 @@
       <c r="C384" s="15">
         <v>25</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="3" t="s">
         <v>1164</v>
       </c>
+      <c r="E384" s="3"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="13" t="s">
@@ -23123,9 +23500,10 @@
       <c r="C385" s="15">
         <v>925</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="3" t="s">
         <v>1164</v>
       </c>
+      <c r="E385" s="3"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="13" t="s">
@@ -23137,9 +23515,10 @@
       <c r="C386" s="15">
         <v>2129</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="3" t="s">
         <v>1164</v>
       </c>
+      <c r="E386" s="3"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="13" t="s">
@@ -23151,11 +23530,12 @@
       <c r="C387" s="15">
         <v>904</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E387" s="3"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="13" t="s">
         <v>255</v>
       </c>
@@ -23165,7 +23545,8 @@
       <c r="C388" s="15" t="s">
         <v>894</v>
       </c>
-      <c r="E388" t="s">
+      <c r="D388" s="3"/>
+      <c r="E388" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -23179,7 +23560,8 @@
       <c r="C389" s="15">
         <v>2.4</v>
       </c>
-      <c r="E389" t="s">
+      <c r="D389" s="3"/>
+      <c r="E389" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -23193,7 +23575,8 @@
       <c r="C390" s="15">
         <v>1</v>
       </c>
-      <c r="E390" t="s">
+      <c r="D390" s="3"/>
+      <c r="E390" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -23207,7 +23590,8 @@
       <c r="C391" s="15">
         <v>5.0025003500449997E+19</v>
       </c>
-      <c r="E391" t="s">
+      <c r="D391" s="3"/>
+      <c r="E391" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -23221,11 +23605,12 @@
       <c r="C392" s="15">
         <v>5.0015005500649997E+23</v>
       </c>
-      <c r="E392" t="s">
+      <c r="D392" s="3"/>
+      <c r="E392" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="s">
         <v>261</v>
       </c>
@@ -23235,11 +23620,12 @@
       <c r="C393" s="15" t="s">
         <v>899</v>
       </c>
-      <c r="E393" t="s">
+      <c r="D393" s="3"/>
+      <c r="E393" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="13" t="s">
         <v>263</v>
       </c>
@@ -23249,7 +23635,8 @@
       <c r="C394" s="15" t="s">
         <v>900</v>
       </c>
-      <c r="E394" t="s">
+      <c r="D394" s="3"/>
+      <c r="E394" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -23263,11 +23650,12 @@
       <c r="C395" s="15">
         <v>8</v>
       </c>
-      <c r="E395" t="s">
+      <c r="D395" s="3"/>
+      <c r="E395" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="13" t="s">
         <v>267</v>
       </c>
@@ -23277,9 +23665,10 @@
       <c r="C396" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="3" t="s">
         <v>1173</v>
       </c>
+      <c r="E396" s="3"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="s">
@@ -23291,11 +23680,12 @@
       <c r="C397" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E397" s="3"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="13" t="s">
         <v>271</v>
       </c>
@@ -23305,11 +23695,12 @@
       <c r="C398" s="15" t="s">
         <v>903</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E398" s="3"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="13" t="s">
         <v>904</v>
       </c>
@@ -23319,11 +23710,12 @@
       <c r="C399" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E399" s="3"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="s">
         <v>273</v>
       </c>
@@ -23333,11 +23725,12 @@
       <c r="C400" s="15" t="s">
         <v>906</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E400" s="3"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="13" t="s">
         <v>275</v>
       </c>
@@ -23347,11 +23740,12 @@
       <c r="C401" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E401" s="3"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="13" t="s">
         <v>277</v>
       </c>
@@ -23361,11 +23755,12 @@
       <c r="C402" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="3" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E402" s="3"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="s">
         <v>279</v>
       </c>
@@ -23375,11 +23770,12 @@
       <c r="C403" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E403" s="3"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="s">
         <v>281</v>
       </c>
@@ -23389,11 +23785,12 @@
       <c r="C404" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E404" s="3"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="13" t="s">
         <v>283</v>
       </c>
@@ -23403,11 +23800,12 @@
       <c r="C405" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E405" s="3"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="13" t="s">
         <v>285</v>
       </c>
@@ -23417,11 +23815,12 @@
       <c r="C406" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E406" s="3"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="13" t="s">
         <v>287</v>
       </c>
@@ -23431,11 +23830,12 @@
       <c r="C407" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E407" s="3"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="13" t="s">
         <v>914</v>
       </c>
@@ -23445,11 +23845,12 @@
       <c r="C408" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E408" s="3"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="13" t="s">
         <v>916</v>
       </c>
@@ -23459,11 +23860,12 @@
       <c r="C409" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="E409" s="3"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="13" t="s">
         <v>918</v>
       </c>
@@ -23473,11 +23875,12 @@
       <c r="C410" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E410" s="3"/>
+    </row>
+    <row r="411" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A411" s="13" t="s">
         <v>289</v>
       </c>
@@ -23487,11 +23890,12 @@
       <c r="C411" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E411" s="3"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="13" t="s">
         <v>921</v>
       </c>
@@ -23501,11 +23905,12 @@
       <c r="C412" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E412" s="3"/>
+    </row>
+    <row r="413" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A413" s="13" t="s">
         <v>291</v>
       </c>
@@ -23515,11 +23920,12 @@
       <c r="C413" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E413" s="3"/>
+    </row>
+    <row r="414" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="s">
         <v>293</v>
       </c>
@@ -23529,11 +23935,12 @@
       <c r="C414" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="E414" s="3"/>
+    </row>
+    <row r="415" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A415" s="13" t="s">
         <v>295</v>
       </c>
@@ -23543,11 +23950,12 @@
       <c r="C415" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415" s="3"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="13" t="s">
         <v>925</v>
       </c>
@@ -23557,9 +23965,10 @@
       <c r="C416" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D416" s="3" t="s">
         <v>1173</v>
       </c>
+      <c r="E416" s="3"/>
     </row>
     <row r="417" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="s">
@@ -23571,9 +23980,10 @@
       <c r="C417" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D417" s="3" t="s">
         <v>1173</v>
       </c>
+      <c r="E417" s="3"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="13" t="s">
@@ -23585,9 +23995,10 @@
       <c r="C418" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="3" t="s">
         <v>1173</v>
       </c>
+      <c r="E418" s="3"/>
     </row>
     <row r="419" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A419" s="13" t="s">
@@ -23599,9 +24010,10 @@
       <c r="C419" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="3" t="s">
         <v>1173</v>
       </c>
+      <c r="E419" s="3"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="13" t="s">
@@ -23613,9 +24025,10 @@
       <c r="C420" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="3" t="s">
         <v>1173</v>
       </c>
+      <c r="E420" s="3"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="13" t="s">
@@ -23627,9 +24040,10 @@
       <c r="C421" s="15">
         <v>0.5</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="3" t="s">
         <v>1173</v>
       </c>
+      <c r="E421" s="3"/>
     </row>
     <row r="422" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="s">
@@ -23641,9 +24055,10 @@
       <c r="C422" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D422" s="3" t="s">
         <v>1174</v>
       </c>
+      <c r="E422" s="3"/>
     </row>
     <row r="423" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A423" s="13" t="s">
@@ -23655,9 +24070,10 @@
       <c r="C423" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="3" t="s">
         <v>1174</v>
       </c>
+      <c r="E423" s="3"/>
     </row>
     <row r="424" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A424" s="13" t="s">
@@ -23669,11 +24085,12 @@
       <c r="C424" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="3" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E424" s="3"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="13" t="s">
         <v>307</v>
       </c>
@@ -23683,11 +24100,12 @@
       <c r="C425" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E425" s="3"/>
+    </row>
+    <row r="426" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A426" s="13" t="s">
         <v>309</v>
       </c>
@@ -23697,11 +24115,12 @@
       <c r="C426" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D426" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E426" s="3"/>
+    </row>
+    <row r="427" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="s">
         <v>311</v>
       </c>
@@ -23711,11 +24130,12 @@
       <c r="C427" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="3" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E427" s="3"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="s">
         <v>313</v>
       </c>
@@ -23725,11 +24145,12 @@
       <c r="C428" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E428" s="3"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="13" t="s">
         <v>315</v>
       </c>
@@ -23739,11 +24160,12 @@
       <c r="C429" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D429" s="3" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="E429" s="3"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="13" t="s">
         <v>317</v>
       </c>
@@ -23753,7 +24175,8 @@
       <c r="C430" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="E430" t="s">
+      <c r="D430" s="3"/>
+      <c r="E430" s="3" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -23764,370 +24187,518 @@
       <c r="B431" s="11" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A432" s="20" t="s">
+      <c r="C431" s="21"/>
+      <c r="D431" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E431" s="3"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B432" s="21" t="s">
+      <c r="B432" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C432" s="22" t="s">
+      <c r="C432" s="20" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="20" t="s">
+      <c r="D432" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E432" s="3"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B433" s="20" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C433" s="20" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E433" s="3"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="B433" s="21" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C433" s="22" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="20" t="s">
+      <c r="B434" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C434" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E434" s="3"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="B434" s="21" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C434" s="22" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="20" t="s">
+      <c r="B435" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C435" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="D435" s="3"/>
+      <c r="E435" s="3"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="B435" s="21" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C435" s="22" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="20" t="s">
-        <v>949</v>
-      </c>
-      <c r="B436" s="21" t="s">
+      <c r="B436" s="20" t="s">
         <v>1114</v>
       </c>
       <c r="C436" s="22" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A437" s="20" t="s">
+      <c r="D436" s="22"/>
+      <c r="E436" s="3"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B437" s="21" t="s">
+      <c r="B437" s="20" t="s">
         <v>324</v>
       </c>
       <c r="C437" s="22" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="20" t="s">
+      <c r="D437" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E437" s="3"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B438" s="21" t="s">
+      <c r="B438" s="20" t="s">
         <v>326</v>
       </c>
       <c r="C438" s="22" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A439" s="20" t="s">
+      <c r="D438" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E438" s="3"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B439" s="21" t="s">
+      <c r="B439" s="20" t="s">
         <v>328</v>
       </c>
       <c r="C439" s="22" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="20" t="s">
+      <c r="D439" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E439" s="3"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B440" s="21" t="s">
+      <c r="B440" s="20" t="s">
         <v>330</v>
       </c>
       <c r="C440" s="22" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A441" s="20" t="s">
+      <c r="D440" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E440" s="3"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B441" s="21" t="s">
+      <c r="B441" s="20" t="s">
         <v>332</v>
       </c>
       <c r="C441" s="22" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="20" t="s">
+      <c r="D441" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E441" s="3"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B442" s="21" t="s">
+      <c r="B442" s="20" t="s">
         <v>334</v>
       </c>
       <c r="C442" s="22" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="20" t="s">
+      <c r="D442" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E442" s="3"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B443" s="21" t="s">
+      <c r="B443" s="20" t="s">
         <v>336</v>
       </c>
       <c r="C443" s="22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="20" t="s">
+      <c r="D443" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E443" s="3"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B444" s="21" t="s">
+      <c r="B444" s="20" t="s">
         <v>338</v>
       </c>
       <c r="C444" s="22" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="20" t="s">
+      <c r="D444" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E444" s="3"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B445" s="21" t="s">
+      <c r="B445" s="20" t="s">
         <v>340</v>
       </c>
       <c r="C445" s="22" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="20" t="s">
+      <c r="D445" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E445" s="3"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B446" s="21" t="s">
+      <c r="B446" s="20" t="s">
         <v>342</v>
       </c>
       <c r="C446" s="22">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="20" t="s">
+      <c r="D446" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E446" s="3"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B447" s="21" t="s">
+      <c r="B447" s="20" t="s">
         <v>344</v>
       </c>
       <c r="C447" s="22" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="20" t="s">
+      <c r="D447" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E447" s="3"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="B448" s="21" t="s">
+      <c r="B448" s="20" t="s">
         <v>1116</v>
       </c>
       <c r="C448" s="22" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="20" t="s">
+      <c r="D448" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E448" s="3"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="B449" s="21" t="s">
+      <c r="B449" s="20" t="s">
         <v>1115</v>
       </c>
       <c r="C449" s="22" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="20" t="s">
+      <c r="D449" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E449" s="3"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B450" s="21" t="s">
+      <c r="B450" s="20" t="s">
         <v>348</v>
       </c>
       <c r="C450" s="22" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A451" s="20" t="s">
+      <c r="D450" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E450" s="3"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B451" s="21" t="s">
+      <c r="B451" s="20" t="s">
         <v>350</v>
       </c>
       <c r="C451" s="22" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="20" t="s">
+      <c r="D451" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E451" s="3"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="B452" s="21" t="s">
+      <c r="B452" s="20" t="s">
         <v>1153</v>
       </c>
       <c r="C452" s="22">
         <v>2960</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="20" t="s">
+      <c r="D452" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E452" s="3"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="B453" s="21"/>
-      <c r="C453" s="22" t="s">
+      <c r="B453" s="20"/>
+      <c r="C453" s="20" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A454" s="20" t="s">
+      <c r="D453" s="3"/>
+      <c r="E453" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="B454" s="21" t="s">
+      <c r="B454" s="20" t="s">
         <v>1133</v>
       </c>
       <c r="C454" s="22" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A455" s="20" t="s">
+      <c r="D454" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E454" s="3"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="B455" s="21" t="s">
+      <c r="B455" s="20" t="s">
         <v>1134</v>
       </c>
       <c r="C455" s="22" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="20" t="s">
+      <c r="D455" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E455" s="3"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="B456" s="21" t="s">
+      <c r="B456" s="20" t="s">
         <v>1135</v>
       </c>
       <c r="C456" s="22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="20" t="s">
+      <c r="D456" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E456" s="3"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="B457" s="21" t="s">
+      <c r="B457" s="20" t="s">
         <v>1136</v>
       </c>
       <c r="C457" s="22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="20" t="s">
+      <c r="D457" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E457" s="3"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="B458" s="21" t="s">
+      <c r="B458" s="20" t="s">
         <v>1137</v>
       </c>
       <c r="C458" s="22" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A459" s="20" t="s">
+      <c r="D458" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E458" s="3"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="B459" s="21" t="s">
+      <c r="B459" s="20" t="s">
         <v>1138</v>
       </c>
       <c r="C459" s="22" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A460" s="20" t="s">
+      <c r="D459" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E459" s="3"/>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="B460" s="21" t="s">
+      <c r="B460" s="20" t="s">
         <v>1136</v>
       </c>
       <c r="C460" s="22" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="20" t="s">
+      <c r="D460" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E460" s="3"/>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="B461" s="21" t="s">
+      <c r="B461" s="20" t="s">
         <v>1139</v>
       </c>
       <c r="C461" s="22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="20" t="s">
+      <c r="D461" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E461" s="3"/>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="B462" s="21" t="s">
+      <c r="B462" s="20" t="s">
         <v>1136</v>
       </c>
       <c r="C462" s="22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A463" s="20" t="s">
+      <c r="D462" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E462" s="3"/>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="B463" s="21" t="s">
+      <c r="B463" s="20" t="s">
         <v>1140</v>
       </c>
       <c r="C463" s="22" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="23" t="s">
+      <c r="D463" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E463" s="3"/>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B464" s="24" t="s">
+      <c r="B464" s="20" t="s">
         <v>1141</v>
       </c>
-      <c r="C464" s="25" t="s">
+      <c r="C464" s="22" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="465" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D464" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E464" s="3"/>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B465" s="20" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C465" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E465" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/SWIM_properties.xlsx
+++ b/docs/SWIM_properties.xlsx
@@ -10,7 +10,7 @@
     <sheet name="TABLE" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE!$E$1:$E$463</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE!$E$1:$E$462</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1059">
   <si>
     <t>root.dir</t>
   </si>
@@ -1437,9 +1437,6 @@
     <t>@ROOT.DIR@/@SCENARIO.NAME@/@SCENARIO.OUTPUTS@/t@AA.PRIOR.RUN@/ActivityLocations.csv</t>
   </si>
   <si>
-    <t>ald.UsingAA</t>
-  </si>
-  <si>
     <t>spg.sensitivity.testing</t>
   </si>
   <si>
@@ -2794,9 +2791,6 @@
   </si>
   <si>
     <t>ALD input</t>
-  </si>
-  <si>
-    <t>Using AA</t>
   </si>
   <si>
     <t>AA Commodities</t>
@@ -3603,7 +3597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3611,11 +3605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E463"/>
+  <dimension ref="A1:E462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,16 +3622,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>914</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>915</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -3646,13 +3640,13 @@
         <v>330</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>331</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -3661,13 +3655,13 @@
         <v>332</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>333</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -3679,837 +3673,837 @@
         <v>153</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>324</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>551</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>555</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>557</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>559</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>433</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>433</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>431</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>433</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>574</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C17" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C18" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C20" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C22" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>582</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C26" s="6">
         <v>0.120753428</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C27" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C28" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C29" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C31" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C32" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C33" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C34" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C35" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C37" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C38" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C39" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C41" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C42" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C44" s="6">
         <v>25</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C45" s="6">
         <v>1200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C46" s="6">
         <v>2E-3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C47" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C48" s="6">
         <v>2.5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C50" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C51" s="6">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C52" s="6">
         <v>0.02</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C53" s="6">
         <v>0.01</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C54" s="6">
         <v>19</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>615</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C56" s="6">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C58" s="6">
         <v>2.5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C59" s="6">
         <v>0.02</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -4524,7 +4518,7 @@
         <v>6006</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -4539,107 +4533,107 @@
         <v>5012</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>570</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>379</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>360</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>361</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>362</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>363</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>364</v>
@@ -4648,10 +4642,10 @@
         <v>364</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4665,13 +4659,13 @@
         <v>365</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>114</v>
@@ -4680,7 +4674,7 @@
         <v>426</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E70" s="1"/>
     </row>
@@ -4695,7 +4689,7 @@
         <v>427</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E71" s="1"/>
     </row>
@@ -4710,7 +4704,7 @@
         <v>428</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E72" s="1"/>
     </row>
@@ -4725,7 +4719,7 @@
         <v>429</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E73" s="1"/>
     </row>
@@ -4734,13 +4728,13 @@
         <v>430</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>431</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E74" s="1"/>
     </row>
@@ -4749,43 +4743,43 @@
         <v>432</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>433</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>434</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>435</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E77" s="1"/>
     </row>
@@ -4794,28 +4788,28 @@
         <v>436</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>359</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>437</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E79" s="1"/>
     </row>
@@ -4824,13 +4818,13 @@
         <v>438</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>439</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -4839,13 +4833,13 @@
         <v>440</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>441</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E81" s="1"/>
     </row>
@@ -4854,13 +4848,13 @@
         <v>442</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>443</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E82" s="1"/>
     </row>
@@ -4869,13 +4863,13 @@
         <v>444</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>445</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E83" s="1"/>
     </row>
@@ -4884,13 +4878,13 @@
         <v>446</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>447</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E84" s="1"/>
     </row>
@@ -4899,13 +4893,13 @@
         <v>448</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>449</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -4914,13 +4908,13 @@
         <v>450</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>451</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E86" s="1"/>
     </row>
@@ -4929,13 +4923,13 @@
         <v>452</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>453</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -4944,13 +4938,13 @@
         <v>454</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>455</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -4959,13 +4953,13 @@
         <v>456</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>457</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -4974,13 +4968,13 @@
         <v>458</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>459</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E90" s="1"/>
     </row>
@@ -4989,13 +4983,13 @@
         <v>460</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>461</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E91" s="1"/>
     </row>
@@ -5004,13 +4998,13 @@
         <v>462</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>463</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E92" s="1"/>
     </row>
@@ -5019,13 +5013,13 @@
         <v>464</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>408</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E93" s="1"/>
     </row>
@@ -5034,13 +5028,13 @@
         <v>465</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>466</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -5049,13 +5043,13 @@
         <v>467</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>468</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E95" s="1"/>
     </row>
@@ -5064,43 +5058,43 @@
         <v>469</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>470</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>471</v>
+        <v>560</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="C97" s="6" t="b">
-        <v>1</v>
+        <v>935</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>561</v>
+        <v>857</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>937</v>
+        <v>897</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>562</v>
+        <v>380</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="E98" s="1"/>
     </row>
@@ -5109,13 +5103,13 @@
         <v>858</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E99" s="1"/>
     </row>
@@ -5124,13 +5118,13 @@
         <v>859</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E100" s="1"/>
     </row>
@@ -5139,13 +5133,13 @@
         <v>860</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E101" s="1"/>
     </row>
@@ -5154,13 +5148,13 @@
         <v>861</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -5169,13 +5163,13 @@
         <v>862</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E103" s="1"/>
     </row>
@@ -5184,13 +5178,13 @@
         <v>863</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E104" s="1"/>
     </row>
@@ -5199,13 +5193,13 @@
         <v>864</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E105" s="1"/>
     </row>
@@ -5214,13 +5208,13 @@
         <v>865</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E106" s="1"/>
     </row>
@@ -5229,13 +5223,13 @@
         <v>866</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E107" s="1"/>
     </row>
@@ -5244,13 +5238,13 @@
         <v>867</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E108" s="1"/>
     </row>
@@ -5259,13 +5253,13 @@
         <v>868</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E109" s="1"/>
     </row>
@@ -5274,13 +5268,13 @@
         <v>869</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E110" s="1"/>
     </row>
@@ -5289,193 +5283,193 @@
         <v>870</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>871</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>898</v>
+        <v>151</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>393</v>
+        <v>494</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>150</v>
+        <v>495</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>151</v>
+        <v>927</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>515</v>
+        <v>380</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E123" s="1"/>
     </row>
@@ -5484,13 +5478,13 @@
         <v>516</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E124" s="1"/>
     </row>
@@ -5499,235 +5493,235 @@
         <v>517</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>381</v>
+        <v>518</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>546</v>
+        <v>97</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>931</v>
+        <v>98</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>547</v>
+        <v>401</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>1017</v>
@@ -5736,61 +5730,61 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>97</v>
+        <v>756</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>98</v>
+        <v>998</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>401</v>
+        <v>757</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>762</v>
+        <v>429</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E144" s="1"/>
     </row>
@@ -5799,28 +5793,28 @@
         <v>763</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>988</v>
+        <v>958</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>429</v>
+        <v>764</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>764</v>
+        <v>877</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>765</v>
+        <v>959</v>
+      </c>
+      <c r="C146" s="6">
+        <v>630730</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E146" s="1"/>
     </row>
@@ -5829,13 +5823,13 @@
         <v>878</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="C147" s="6">
-        <v>630730</v>
+        <v>960</v>
+      </c>
+      <c r="C147" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E147" s="1"/>
     </row>
@@ -5844,13 +5838,13 @@
         <v>879</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="C148" s="6" t="b">
-        <v>0</v>
+        <v>961</v>
+      </c>
+      <c r="C148" s="6">
+        <v>23</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E148" s="1"/>
     </row>
@@ -5859,13 +5853,13 @@
         <v>880</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C149" s="6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E149" s="1"/>
     </row>
@@ -5874,13 +5868,13 @@
         <v>881</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C150" s="6">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E150" s="1"/>
     </row>
@@ -5889,13 +5883,13 @@
         <v>882</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C151" s="6">
-        <v>50</v>
+        <v>411419</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E151" s="1"/>
     </row>
@@ -5904,13 +5898,13 @@
         <v>883</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C152" s="6">
-        <v>411419</v>
+        <v>2.41</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E152" s="1"/>
     </row>
@@ -5919,43 +5913,43 @@
         <v>884</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C153" s="6">
-        <v>2.41</v>
+        <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>885</v>
+        <v>765</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C154" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>766</v>
+        <v>885</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C155" s="6">
-        <v>25</v>
+        <v>925</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E155" s="1"/>
     </row>
@@ -5964,13 +5958,13 @@
         <v>886</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C156" s="6">
-        <v>925</v>
+        <v>2129</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E156" s="1"/>
     </row>
@@ -5979,63 +5973,65 @@
         <v>887</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C157" s="6">
-        <v>2129</v>
+        <v>904</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>888</v>
+        <v>99</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="C158" s="6">
-        <v>904</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E158" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>402</v>
+        <v>766</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>1019</v>
+        <v>1053</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>220</v>
+        <v>767</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>767</v>
+        <v>1001</v>
+      </c>
+      <c r="C160" s="6">
+        <v>2.4</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6043,16 +6039,16 @@
         <v>768</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C161" s="6">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6060,16 +6056,16 @@
         <v>769</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C162" s="6">
-        <v>1</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>1055</v>
+        <v>5.0025003500449997E+19</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>1053</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6077,497 +6073,493 @@
         <v>770</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C163" s="6">
-        <v>5.0025003500449997E+19</v>
+        <v>5.0015005500649997E+23</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C164" s="6">
-        <v>5.0015005500649997E+23</v>
-      </c>
       <c r="D164" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>772</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>773</v>
+        <v>227</v>
+      </c>
+      <c r="C166" s="6">
+        <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C167" s="6">
-        <v>8</v>
+        <v>1970</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>1014</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C168" s="6">
-        <v>1970</v>
+        <v>102</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>103</v>
+        <v>405</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>104</v>
+        <v>915</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>423</v>
+        <v>105</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>916</v>
+        <v>106</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>425</v>
+        <v>108</v>
+      </c>
+      <c r="C181" s="6">
+        <v>2009</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C182" s="6">
-        <v>2009</v>
+        <v>19</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C183" s="6">
-        <v>19</v>
+        <v>112</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="C184" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C185" s="6" t="b">
-        <v>0</v>
+        <v>898</v>
+      </c>
+      <c r="C185" s="6">
+        <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>899</v>
       </c>
       <c r="C186" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>900</v>
+        <v>975</v>
       </c>
       <c r="C187" s="6">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>396</v>
+        <v>89</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>977</v>
+        <v>90</v>
       </c>
       <c r="C188" s="6">
-        <v>25</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B189" s="2"/>
       <c r="C189" s="6">
-        <v>8.6699999999999999E-2</v>
+        <v>10</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="6">
-        <v>10</v>
+      <c r="C190" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" s="6" t="b">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C191" s="6">
+        <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C192" s="6">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="B194" s="2"/>
       <c r="C194" s="6" t="s">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="6" t="s">
-        <v>621</v>
+      <c r="C195" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E195" s="1"/>
     </row>
@@ -6576,11 +6568,11 @@
         <v>622</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="6" t="b">
-        <v>0</v>
+      <c r="C196" s="6">
+        <v>0.80869999999999997</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E196" s="1"/>
     </row>
@@ -6593,7 +6585,7 @@
         <v>0.80869999999999997</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E197" s="1"/>
     </row>
@@ -6606,215 +6598,217 @@
         <v>0.80869999999999997</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="B199" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="C199" s="6">
-        <v>0.80869999999999997</v>
+        <v>50</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>154</v>
+        <v>625</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C200" s="6">
-        <v>50</v>
+        <v>953</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E203" s="1"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E205" s="1"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E207" s="1"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E208" s="1"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>642</v>
+        <v>156</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>979</v>
+        <v>157</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>643</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E209" s="1"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>644</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E210" s="1"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>645</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E211" s="1"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>160</v>
+        <v>646</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>646</v>
+        <v>978</v>
+      </c>
+      <c r="C212" s="6">
+        <v>10</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E212" s="1"/>
     </row>
@@ -6823,13 +6817,13 @@
         <v>647</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C213" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E213" s="1"/>
     </row>
@@ -6838,13 +6832,13 @@
         <v>648</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C214" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E214" s="1"/>
     </row>
@@ -6853,343 +6847,343 @@
         <v>649</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C215" s="6">
         <v>30</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E215" s="1"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>650</v>
+        <v>162</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>980</v>
+        <v>163</v>
       </c>
       <c r="C216" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E216" s="1"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>162</v>
+        <v>397</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>163</v>
+        <v>978</v>
       </c>
       <c r="C217" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E217" s="1"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>397</v>
+        <v>164</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>980</v>
+        <v>165</v>
       </c>
       <c r="C218" s="6">
-        <v>60</v>
+        <v>71.604223399999995</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E218" s="1"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C219" s="6">
-        <v>71.604223399999995</v>
+        <v>2.1481267000000002</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E219" s="1"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C220" s="6">
-        <v>2.1481267000000002</v>
+        <v>16.366679600000001</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E220" s="1"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>168</v>
+        <v>650</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C221" s="6">
-        <v>16.366679600000001</v>
+        <v>979</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>651</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E221" s="1"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E222" s="1"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>653</v>
+        <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>654</v>
+        <v>171</v>
+      </c>
+      <c r="C223" s="6">
+        <v>9.0415491734287398E+26</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E223" s="1"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>170</v>
+        <v>654</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C224" s="6">
-        <v>9.0415491734287398E+26</v>
+        <v>981</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>655</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E224" s="1"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E225" s="1"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E226" s="1"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E227" s="1"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E228" s="1"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E229" s="1"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E230" s="1"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E231" s="1"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E232" s="1"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>987</v>
+        <v>1007</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E233" s="1"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E234" s="1"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>675</v>
+        <v>172</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C235" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C235" s="6">
+        <v>37408</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C236" s="6">
+        <v>74814</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E235" s="1"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C236" s="6">
-        <v>37408</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E236" s="1"/>
-    </row>
-    <row r="237" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="B237" s="2" t="s">
-        <v>175</v>
+        <v>956</v>
       </c>
       <c r="C237" s="6">
-        <v>74814</v>
+        <v>2.5</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E237" s="1"/>
     </row>
@@ -7198,73 +7192,73 @@
         <v>677</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="C238" s="6">
-        <v>2.5</v>
+        <v>945</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>678</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E238" s="1"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E239" s="1"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E240" s="1"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>949</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E241" s="1"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E242" s="1"/>
     </row>
@@ -7276,25 +7270,25 @@
         <v>950</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E243" s="1"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>688</v>
+        <v>956</v>
+      </c>
+      <c r="C244" s="6">
+        <v>0</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E244" s="1"/>
     </row>
@@ -7303,13 +7297,13 @@
         <v>689</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C245" s="6">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E245" s="1"/>
     </row>
@@ -7318,13 +7312,13 @@
         <v>690</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C246" s="6">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E246" s="1"/>
     </row>
@@ -7333,13 +7327,13 @@
         <v>691</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C247" s="6">
         <v>0</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E247" s="1"/>
     </row>
@@ -7348,13 +7342,13 @@
         <v>692</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C248" s="6">
         <v>0</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E248" s="1"/>
     </row>
@@ -7363,13 +7357,13 @@
         <v>693</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C249" s="6">
         <v>0</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E249" s="1"/>
     </row>
@@ -7378,13 +7372,13 @@
         <v>694</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C250" s="6">
         <v>0</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E250" s="1"/>
     </row>
@@ -7393,13 +7387,13 @@
         <v>695</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C251" s="6">
-        <v>0</v>
+        <v>-1.8350000000000002E-2</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E251" s="1"/>
     </row>
@@ -7408,13 +7402,13 @@
         <v>696</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C252" s="6">
-        <v>-1.8350000000000002E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E252" s="1"/>
     </row>
@@ -7422,417 +7416,417 @@
       <c r="A253" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>958</v>
-      </c>
+      <c r="B253" s="2"/>
       <c r="C253" s="6">
-        <v>-2.5000000000000001E-2</v>
+        <v>5000</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E253" s="1"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="6">
-        <v>5000</v>
-      </c>
       <c r="D254" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E254" s="1"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>176</v>
+        <v>699</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>177</v>
+        <v>957</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E255" s="1"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E256" s="1"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E257" s="1"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E258" s="1"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E259" s="1"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E260" s="1"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E261" s="1"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E262" s="1"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E263" s="1"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E264" s="1"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E265" s="1"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E266" s="1"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E267" s="1"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>726</v>
+        <v>178</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>959</v>
+        <v>179</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>727</v>
+        <v>567</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E269" s="1"/>
     </row>
     <row r="270" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>568</v>
+        <v>727</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>180</v>
+        <v>728</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>181</v>
+        <v>957</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E271" s="1"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E272" s="1"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E273" s="1"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>733</v>
+        <v>182</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>959</v>
+        <v>183</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>734</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E274" s="1"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>182</v>
+        <v>735</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>183</v>
+        <v>957</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>736</v>
+        <v>184</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>959</v>
+        <v>185</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>737</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E276" s="1"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>738</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E277" s="1"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>739</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E278" s="1"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>188</v>
+        <v>740</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>189</v>
+        <v>957</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E279" s="1"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>959</v>
+        <v>997</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>742</v>
+        <v>433</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E280" s="1"/>
     </row>
@@ -7841,373 +7835,373 @@
         <v>743</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>433</v>
+        <v>744</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E281" s="1"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>998</v>
+        <v>957</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E282" s="1"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>746</v>
+        <v>190</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>959</v>
+        <v>191</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>747</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E283" s="1"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>748</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E284" s="1"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>749</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E285" s="1"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>750</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E286" s="1"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>751</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E287" s="1"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>752</v>
+        <v>201</v>
+      </c>
+      <c r="C288" s="6">
+        <v>5</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E288" s="1"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C289" s="6">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E289" s="1"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C290" s="6">
-        <v>23</v>
+        <v>306</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>752</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E290" s="1"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>753</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>754</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E292" s="1"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E293" s="1"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>754</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E294" s="1"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>755</v>
+        <v>311</v>
+      </c>
+      <c r="C295" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E295" s="1"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C296" s="6" t="b">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="C296" s="6">
+        <v>2337</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E296" s="1"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C297" s="6">
-        <v>2337</v>
+        <v>290</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E297" s="1"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C298" s="6">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C299" s="6">
-        <v>345</v>
+        <v>217</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>755</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>756</v>
+        <v>314</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="E300" s="1"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1</v>
+        <v>888</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E301" s="1"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>846</v>
+        <v>2</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>889</v>
+        <v>3</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E302" s="1"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="C303" s="6">
+        <v>1990</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E303" s="1"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C304" s="6">
-        <v>1990</v>
+        <v>7</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E304" s="1"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>6</v>
+        <v>846</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>7</v>
+        <v>889</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E305" s="1"/>
     </row>
@@ -8219,10 +8213,10 @@
         <v>890</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E306" s="1"/>
     </row>
@@ -8234,679 +8228,679 @@
         <v>891</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E307" s="1"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>849</v>
+        <v>8</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>892</v>
+        <v>9</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E308" s="1"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E309" s="1"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E310" s="1"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>12</v>
+        <v>849</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>323</v>
+        <v>892</v>
+      </c>
+      <c r="C311" s="6">
+        <v>14</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E311" s="1"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>850</v>
+        <v>14</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="C312" s="6">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E312" s="1"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E313" s="1"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>17</v>
+        <v>893</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>325</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E314" s="1"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>894</v>
+        <v>19</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E315" s="1"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C318" s="6" t="s">
-        <v>329</v>
+        <v>25</v>
+      </c>
+      <c r="C318" s="6">
+        <v>0.8</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C319" s="6">
-        <v>0.8</v>
+        <v>312</v>
+      </c>
+      <c r="C319" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E319" s="1"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C320" s="6" t="b">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>1036</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E320" s="1"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>1038</v>
+        <v>30</v>
+      </c>
+      <c r="C321" s="6">
+        <v>15000</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E321" s="1"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C322" s="6">
         <v>15000</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C323" s="6">
-        <v>15000</v>
+        <v>100</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C324" s="6">
-        <v>100</v>
+        <v>7067</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E324" s="1"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C325" s="6">
-        <v>7067</v>
+        <v>8067</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E325" s="1"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C326" s="6">
-        <v>8067</v>
+        <v>9067</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E326" s="1"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>39</v>
+        <v>1029</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C327" s="6">
-        <v>9067</v>
+        <v>1031</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>1027</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>1032</v>
+        <v>63</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1034</v>
+        <v>64</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>1030</v>
+        <v>344</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E329" s="1"/>
     </row>
     <row r="330" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>65</v>
+        <v>346</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>66</v>
+        <v>974</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E331" s="1"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>346</v>
+        <v>67</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>976</v>
+        <v>68</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E333" s="1"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>70</v>
+        <v>973</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E334" s="1"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>975</v>
+        <v>72</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E335" s="1"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E336" s="1"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E337" s="1"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E338" s="1"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E339" s="1"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>80</v>
+        <v>972</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E340" s="1"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>357</v>
+        <v>776</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>974</v>
+        <v>1005</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>358</v>
+        <v>777</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E341" s="1"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>777</v>
+        <v>234</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1007</v>
+        <v>235</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>778</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E342" s="1"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>779</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E343" s="1"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>780</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E344" s="1"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>781</v>
+      <c r="A345" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C345" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E345" s="1"/>
+        <v>1009</v>
+      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B346" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C346" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="C346" s="7" t="b">
-        <v>0</v>
-      </c>
       <c r="D346" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>1049</v>
+        <v>1040</v>
+      </c>
+      <c r="C348" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C349" s="7" t="b">
-        <v>0</v>
+        <v>1051</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>1049</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="5" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>1011</v>
-      </c>
+      <c r="A351" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D351" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E351" s="1"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>81</v>
+        <v>855</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>82</v>
+        <v>911</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D352" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E352" s="1"/>
     </row>
@@ -8915,596 +8909,594 @@
         <v>856</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>912</v>
+        <v>951</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D353" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E353" s="1"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>379</v>
+        <v>567</v>
       </c>
       <c r="D354" s="18" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E354" s="1"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>876</v>
+        <v>274</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>942</v>
+        <v>275</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="D355" s="18" t="s">
-        <v>1011</v>
+        <v>805</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>1009</v>
       </c>
       <c r="E355" s="1"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>1011</v>
+      <c r="A356" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B356" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="D356" s="17" t="s">
+        <v>1023</v>
       </c>
       <c r="E356" s="1"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>815</v>
+        <v>433</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E357" s="1"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E358" s="1"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>335</v>
+        <v>815</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E359" s="1"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>816</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E360" s="1"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>817</v>
+        <v>291</v>
+      </c>
+      <c r="C361" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E361" s="1"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C362" s="11" t="b">
-        <v>1</v>
+        <v>293</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>817</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E362" s="1"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>818</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E363" s="1"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>819</v>
+        <v>297</v>
+      </c>
+      <c r="C364" s="11">
+        <v>0.95</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E364" s="1"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C365" s="11">
-        <v>0.95</v>
+        <v>299</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>819</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E365" s="1"/>
+        <v>1023</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>820</v>
+        <v>1055</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="11" t="s">
-        <v>300</v>
+        <v>820</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>301</v>
+        <v>971</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>1057</v>
+        <v>821</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>1014</v>
-      </c>
+        <v>1023</v>
+      </c>
+      <c r="E367" s="1"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E368" s="1"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="11" t="s">
-        <v>823</v>
+        <v>302</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>972</v>
+        <v>303</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>824</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E369" s="1"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C370" s="11" t="s">
-        <v>825</v>
+        <v>305</v>
+      </c>
+      <c r="C370" s="11">
+        <v>2960</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E370" s="1"/>
+        <v>1023</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B371" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C371" s="11">
-        <v>2960</v>
-      </c>
-      <c r="D371" s="17" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>1014</v>
-      </c>
+      <c r="A371" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B371" s="2"/>
+      <c r="C371" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E371" s="1"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B372" s="2"/>
-      <c r="C372" s="6" t="b">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C372" s="6">
+        <v>1</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E372" s="1"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C373" s="6">
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="C373" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E373" s="1"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C374" s="6" t="b">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E374" s="1"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>473</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>474</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>128</v>
+        <v>475</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>129</v>
+        <v>976</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>476</v>
+        <v>1056</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>978</v>
+        <v>130</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>477</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>478</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E379" s="1"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>1059</v>
+        <v>132</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>479</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E380" s="1"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>480</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E381" s="1"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>481</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E382" s="1"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>482</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E383" s="1"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>483</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E384" s="1"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>484</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E385" s="1"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B386" s="2"/>
       <c r="C386" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E386" s="1"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E387" s="1"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>488</v>
+        <v>874</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" s="6" t="s">
         <v>489</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="B389" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C389" s="6" t="s">
         <v>490</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E389" s="1"/>
     </row>
     <row r="390" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>491</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C391" s="6" t="s">
-        <v>492</v>
+        <v>149</v>
+      </c>
+      <c r="C391" s="6">
+        <v>8.0001500023000305E+39</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E391" s="1"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="B392" s="2"/>
       <c r="C392" s="6">
-        <v>8.0001500023000305E+39</v>
+        <v>2</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E392" s="1"/>
     </row>
@@ -9513,922 +9505,924 @@
         <v>493</v>
       </c>
       <c r="B393" s="2"/>
-      <c r="C393" s="6">
-        <v>2</v>
+      <c r="C393" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E393" s="1"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B394" s="2"/>
-      <c r="C394" s="6" t="b">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>563</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E394" s="1"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>563</v>
+        <v>228</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>938</v>
+        <v>229</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>564</v>
+        <v>773</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E395" s="1"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>774</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E396" s="1"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>775</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E397" s="1"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E398" s="1"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E399" s="1"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C400" s="6" t="s">
         <v>783</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C401" s="6" t="s">
         <v>784</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>246</v>
+        <v>785</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>247</v>
+        <v>962</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>786</v>
+        <v>248</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>964</v>
+        <v>249</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>787</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E403" s="1"/>
     </row>
     <row r="404" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E404" s="1"/>
     </row>
     <row r="405" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>252</v>
+        <v>789</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>253</v>
+        <v>963</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>790</v>
+        <v>254</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>965</v>
+        <v>255</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>791</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>254</v>
+        <v>792</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>255</v>
+        <v>964</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>793</v>
+        <v>256</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>966</v>
+        <v>257</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>794</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>256</v>
+        <v>795</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>257</v>
+        <v>965</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E410" s="1"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>967</v>
+        <v>1006</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>797</v>
+        <v>1035</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E411" s="1"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>798</v>
+        <v>264</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>1008</v>
+        <v>265</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>1037</v>
+        <v>800</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>801</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E414" s="1"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>804</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E415" s="1"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C416" s="6" t="s">
-        <v>805</v>
+      <c r="A416" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="C416" s="11" t="s">
+        <v>1024</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E416" s="1"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="11" t="s">
-        <v>278</v>
+        <v>806</v>
       </c>
       <c r="B417" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>1026</v>
+        <v>807</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E417" s="1"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="11" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B418" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E418" s="1"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B419" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>1023</v>
+        <v>811</v>
+      </c>
+      <c r="D419" s="18" t="s">
+        <v>1021</v>
       </c>
       <c r="E419" s="1"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="11" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B420" s="11" t="s">
-        <v>971</v>
-      </c>
-      <c r="C420" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="D420" s="18" t="s">
-        <v>1023</v>
+        <v>1025</v>
+      </c>
+      <c r="C420" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="D420" s="17" t="s">
+        <v>1021</v>
       </c>
       <c r="E420" s="1"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="11" t="s">
-        <v>813</v>
+        <v>843</v>
       </c>
       <c r="B421" s="11" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C421" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="D421" s="17" t="s">
-        <v>1023</v>
+        <v>995</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>1021</v>
       </c>
       <c r="E421" s="1"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="B422" s="11" t="s">
-        <v>997</v>
-      </c>
-      <c r="C422" s="7" t="s">
-        <v>845</v>
+      <c r="A422" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C422" s="6">
+        <v>700</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="E422" s="1"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="4" t="s">
-        <v>367</v>
+      <c r="A423" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>901</v>
       </c>
       <c r="C423" s="6">
-        <v>700</v>
+        <v>859</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E423" s="1"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C424" s="6">
-        <v>859</v>
+        <v>900</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E424" s="1"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>904</v>
       </c>
       <c r="C425" s="6">
-        <v>900</v>
+        <v>1559</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E425" s="1"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C426" s="6">
-        <v>1559</v>
+        <v>900</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E426" s="1"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C427" s="6">
-        <v>900</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>1015</v>
+        <v>902</v>
+      </c>
+      <c r="C427" s="16">
+        <v>1559</v>
+      </c>
+      <c r="D427" s="12" t="s">
+        <v>1013</v>
       </c>
       <c r="E427" s="1"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C428" s="16">
-        <v>1559</v>
+        <v>905</v>
+      </c>
+      <c r="C428" s="6">
+        <v>1600</v>
       </c>
       <c r="D428" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E428" s="1"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C429" s="6">
-        <v>1600</v>
+      <c r="C429" s="16">
+        <v>1759</v>
       </c>
       <c r="D429" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E429" s="1"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>907</v>
       </c>
       <c r="C430" s="16">
-        <v>1759</v>
+        <v>1800</v>
       </c>
       <c r="D430" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E430" s="1"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>908</v>
       </c>
       <c r="C431" s="16">
-        <v>1800</v>
+        <v>659</v>
       </c>
       <c r="D431" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E431" s="1"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>909</v>
       </c>
       <c r="C432" s="16">
-        <v>659</v>
+        <v>1800</v>
       </c>
       <c r="D432" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E432" s="1"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>910</v>
       </c>
       <c r="C433" s="16">
-        <v>1800</v>
+        <v>659</v>
       </c>
       <c r="D433" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A434" s="15" t="s">
-        <v>378</v>
+        <v>258</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C434" s="16">
-        <v>659</v>
+        <v>259</v>
+      </c>
+      <c r="C434" s="16" t="s">
+        <v>798</v>
       </c>
       <c r="D434" s="12" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="E434" s="1"/>
     </row>
     <row r="435" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A435" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C435" s="16" t="s">
         <v>799</v>
       </c>
       <c r="D435" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E435" s="1"/>
     </row>
     <row r="436" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A436" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C436" s="16" t="s">
-        <v>800</v>
+        <v>263</v>
+      </c>
+      <c r="C436" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="D436" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E436" s="1"/>
     </row>
     <row r="437" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A437" s="15" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C437" s="16" t="b">
-        <v>0</v>
+        <v>269</v>
+      </c>
+      <c r="C437" s="16" t="s">
+        <v>802</v>
       </c>
       <c r="D437" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="15" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C438" s="16" t="s">
-        <v>803</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C438" s="19"/>
       <c r="D438" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E438" s="1"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C439" s="19"/>
+      <c r="A439" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B439" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>433</v>
+      </c>
       <c r="D439" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E439" s="1"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B440" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C440" s="12" t="s">
-        <v>433</v>
+      <c r="A440" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C440" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="D440" s="12" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="E440" s="1"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="15" t="s">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>897</v>
+        <v>42</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D441" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E441" s="1"/>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D442" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A443" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D443" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E443" s="1"/>
     </row>
     <row r="444" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A444" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C444" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D444" s="12" t="s">
-        <v>1012</v>
+        <v>48</v>
+      </c>
+      <c r="C444" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>1010</v>
       </c>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C445" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>1012</v>
+        <v>50</v>
+      </c>
+      <c r="C445" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D445" s="12" t="s">
+        <v>1010</v>
       </c>
       <c r="E445" s="1"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D446" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A447" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D447" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E447" s="1"/>
     </row>
     <row r="448" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A448" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D448" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E448" s="1"/>
     </row>
     <row r="449" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A449" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D449" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E449" s="1"/>
     </row>
     <row r="450" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A450" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>343</v>
+        <v>1033</v>
       </c>
       <c r="D450" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E450" s="1"/>
     </row>
     <row r="451" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A451" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C451" s="16" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D451" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A452" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C452" s="16" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D452" s="12" t="s">
-        <v>1012</v>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B452" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="D452" s="13" t="s">
+        <v>1010</v>
       </c>
       <c r="E452" s="1"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B453" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C453" s="12" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D453" s="13" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E453" s="1"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B454" s="11" t="s">
-        <v>990</v>
-      </c>
-      <c r="C454" s="12" t="s">
         <v>829</v>
       </c>
+      <c r="B454" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C454" s="12" t="b">
+        <v>1</v>
+      </c>
       <c r="D454" s="13" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E454" s="1"/>
     </row>
@@ -10436,14 +10430,14 @@
       <c r="A455" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B455" s="3" t="s">
-        <v>1028</v>
+      <c r="B455" s="11" t="s">
+        <v>989</v>
       </c>
       <c r="C455" s="12" t="b">
         <v>1</v>
       </c>
       <c r="D455" s="13" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E455" s="1"/>
     </row>
@@ -10452,58 +10446,58 @@
         <v>831</v>
       </c>
       <c r="B456" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="C456" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="D456" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E456" s="1"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="B457" s="11" t="s">
         <v>991</v>
       </c>
-      <c r="C456" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D456" s="13" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E456" s="1"/>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B457" s="11" t="s">
-        <v>992</v>
-      </c>
       <c r="C457" s="11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D457" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E457" s="1"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B458" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D458" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E458" s="1"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B459" s="11" t="s">
-        <v>994</v>
-      </c>
-      <c r="C459" s="11" t="s">
-        <v>837</v>
+        <v>990</v>
+      </c>
+      <c r="C459" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="D459" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E459" s="1"/>
     </row>
@@ -10512,13 +10506,13 @@
         <v>838</v>
       </c>
       <c r="B460" s="11" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C460" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D460" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E460" s="1"/>
     </row>
@@ -10527,48 +10521,33 @@
         <v>839</v>
       </c>
       <c r="B461" s="11" t="s">
-        <v>995</v>
-      </c>
-      <c r="C461" s="11" t="b">
-        <v>1</v>
+        <v>990</v>
+      </c>
+      <c r="C461" s="11" t="s">
+        <v>840</v>
       </c>
       <c r="D461" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E461" s="1"/>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B462" s="11" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D462" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="B463" s="11" t="s">
-        <v>996</v>
-      </c>
-      <c r="C463" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="D463" s="17" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E463" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="E1:E463"/>
+  <autoFilter ref="E1:E462"/>
   <sortState ref="A2:E470">
     <sortCondition ref="D1"/>
   </sortState>
